--- a/docs/MOPED_II_Mapping.xlsx
+++ b/docs/MOPED_II_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/GitHub/ELGA-MOPED-R5/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780E08A-1545-FE47-BF9E-7306E29D1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D70153F-2C39-BC4D-A1E5-24E0A77B5DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10260" yWindow="-28800" windowWidth="51200" windowHeight="28800" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X01" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5894" uniqueCount="871">
   <si>
     <t>Basisdaten zum stationären Aufenthalt/
 ambulanten Besuch</t>
@@ -1667,6 +1667,9 @@
     <t>ERDAT</t>
   </si>
   <si>
+    <t>Claim.accident.date</t>
+  </si>
+  <si>
     <t>VTAG</t>
   </si>
   <si>
@@ -2452,9 +2455,6 @@
     <t>noch notwendig?</t>
   </si>
   <si>
-    <t>zu klären, ob noch notwendig</t>
-  </si>
-  <si>
     <t>erst in K05 relevant</t>
   </si>
   <si>
@@ -2512,9 +2512,6 @@
     <t>E.1. Identifikationsteil</t>
   </si>
   <si>
-    <t>Organization?</t>
-  </si>
-  <si>
     <t>Encounter.admission.origin.resolve().identifier:VPNR</t>
   </si>
   <si>
@@ -2734,21 +2731,12 @@
     <t>Patientidentifier:socialSecurityNumber</t>
   </si>
   <si>
-    <t>EKVKCoverage</t>
-  </si>
-  <si>
     <t>möchte man hier die citizenship? Den wohnort staat? Oder das ausstellungsland der EKVK karte?</t>
   </si>
   <si>
-    <t>eigene Organization ?</t>
-  </si>
-  <si>
     <t>Coverage.period.end</t>
   </si>
   <si>
-    <t>Coverage.identifier</t>
-  </si>
-  <si>
     <t>eigene Organization? Wer bringt die dann ein?</t>
   </si>
   <si>
@@ -2791,9 +2779,6 @@
     <t>bei Kommentaren der SV muss die Communication.extension:MBDSRelevanz = false sein</t>
   </si>
   <si>
-    <t>Nicht das Unfalldatum sondern das VAE Verlängerungsdatum</t>
-  </si>
-  <si>
     <t>Referenz auf eine Abteilung</t>
   </si>
   <si>
@@ -2839,13 +2824,49 @@
     <t>Ereignis-/Unfalldatum JJJJMMTT (initiales Aufnahmedatum)</t>
   </si>
   <si>
-    <t>Encounter.extension:Unfalldatum</t>
-  </si>
-  <si>
-    <t>Encounter.atualPeriod.start</t>
-  </si>
-  <si>
     <t>Claim.?</t>
+  </si>
+  <si>
+    <t>generischer Kommunikationsprozess in Moped ist in Arbeit :)</t>
+  </si>
+  <si>
+    <t>Nicht das Unfalldatum sondern das VAE Verlängerungsdatum; Modellierung der Verlängerung ist in Arbeit</t>
+  </si>
+  <si>
+    <t>Überlegung, ob diese Organization 'contained' wird im Encounter</t>
+  </si>
+  <si>
+    <t>VAERequest.supportingInfo:VerdachtFremdverschulden.value</t>
+  </si>
+  <si>
+    <t>Thema Geburt in Arbeit</t>
+  </si>
+  <si>
+    <t>SV/KH</t>
+  </si>
+  <si>
+    <t>MopedEKVKOrganization</t>
+  </si>
+  <si>
+    <t>Coverage.insurer.resolve().contact.address.country</t>
+  </si>
+  <si>
+    <t>Coverage.insurer.resolve().identifier:Institutionscode</t>
+  </si>
+  <si>
+    <t>Coverage.insurer.resolve().alias</t>
+  </si>
+  <si>
+    <t>Coverage.period.start</t>
+  </si>
+  <si>
+    <t>Coverage.subscriberId</t>
+  </si>
+  <si>
+    <t>EKVKCoverage/BilateralCoverage</t>
+  </si>
+  <si>
+    <t>wird mit Terminologen abgeklärt</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3293,6 +3314,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3302,8 +3324,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7A7A"/>
       <color rgb="FFFFF0C2"/>
-      <color rgb="FFFF7A7A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3636,9 +3658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y25" sqref="Y25"/>
+    <sheetView zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3673,7 +3695,7 @@
     </row>
     <row r="2" spans="1:27" ht="16">
       <c r="A2" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3685,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -3700,10 +3722,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>7</v>
@@ -3715,7 +3737,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>10</v>
@@ -3745,7 +3767,7 @@
         <v>18</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -3824,7 +3846,7 @@
         <v>26</v>
       </c>
       <c r="Y3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>20</v>
@@ -3928,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>250</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>26</v>
@@ -3995,13 +4017,13 @@
         <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>250</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>26</v>
@@ -4060,7 +4082,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>250</v>
@@ -4121,7 +4143,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>250</v>
@@ -4182,7 +4204,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>250</v>
@@ -4248,7 +4270,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>58</v>
@@ -4304,13 +4326,13 @@
         <v>8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>250</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>26</v>
@@ -4368,7 +4390,7 @@
         <v>56</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>64</v>
@@ -4427,7 +4449,7 @@
         <v>56</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>68</v>
@@ -4486,7 +4508,7 @@
         <v>56</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>72</v>
@@ -4546,7 +4568,7 @@
         <v>56</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>78</v>
@@ -4609,7 +4631,7 @@
         <v>56</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>80</v>
@@ -4669,13 +4691,13 @@
         <v>14</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>250</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>26</v>
@@ -4727,7 +4749,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>250</v>
@@ -4785,7 +4807,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>250</v>
@@ -4844,7 +4866,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>250</v>
@@ -4903,7 +4925,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>250</v>
@@ -4963,7 +4985,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>250</v>
@@ -5021,7 +5043,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>250</v>
@@ -5079,7 +5101,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>250</v>
@@ -5143,19 +5165,19 @@
         <v>249</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>350</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
@@ -5167,7 +5189,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -5198,10 +5220,10 @@
         <v>208</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>117</v>
@@ -5253,10 +5275,10 @@
         <v>208</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>117</v>
@@ -5324,7 +5346,7 @@
         <v>111</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
@@ -5335,10 +5357,10 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Y28" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -5877,7 +5899,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5886,7 +5908,8 @@
     <col min="2" max="4" width="8.83203125" style="43"/>
     <col min="5" max="5" width="11.83203125" style="43" customWidth="1"/>
     <col min="6" max="6" width="6" style="43" customWidth="1"/>
-    <col min="7" max="11" width="8.83203125" style="43"/>
+    <col min="7" max="7" width="14" style="43" customWidth="1"/>
+    <col min="8" max="11" width="8.83203125" style="43"/>
     <col min="12" max="12" width="24.83203125" style="43" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.1640625" style="43" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8.83203125" style="43"/>
@@ -5897,7 +5920,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="19">
       <c r="A1" s="42" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -5905,7 +5928,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="44" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>137</v>
@@ -5920,10 +5943,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>3</v>
@@ -5938,7 +5961,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M2" s="44" t="s">
         <v>7</v>
@@ -5947,7 +5970,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P2" s="44" t="s">
         <v>9</v>
@@ -5980,7 +6003,7 @@
         <v>18</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -6055,7 +6078,7 @@
         <v>26</v>
       </c>
       <c r="Z3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -6095,7 +6118,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Z4" t="s">
         <v>26</v>
@@ -6137,7 +6160,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Z5" t="s">
         <v>26</v>
@@ -6179,7 +6202,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Z6" t="s">
         <v>26</v>
@@ -6221,7 +6244,7 @@
         <v>26</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Z7" t="s">
         <v>26</v>
@@ -6263,7 +6286,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Z8" t="s">
         <v>26</v>
@@ -6305,7 +6328,7 @@
         <v>26</v>
       </c>
       <c r="P9" s="43" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Z9" t="s">
         <v>26</v>
@@ -6347,9 +6370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E1311E-CAB1-4C63-ABED-74737ECF81AA}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6381,10 +6404,10 @@
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -6393,7 +6416,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -6408,7 +6431,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -6420,7 +6443,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -6450,7 +6473,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16">
@@ -6512,7 +6535,7 @@
         <v>26</v>
       </c>
       <c r="X3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
@@ -6566,13 +6589,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="9"/>
       <c r="J5" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K5" s="47" t="s">
         <v>250</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -6639,16 +6662,16 @@
         <v>249</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>350</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="X7" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
@@ -6665,16 +6688,16 @@
       <c r="F8" s="9"/>
       <c r="G8" s="12"/>
       <c r="H8" s="9"/>
-      <c r="J8" t="s">
+      <c r="J8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="28" t="s">
         <v>40</v>
       </c>
       <c r="N8" t="s">
@@ -6684,7 +6707,7 @@
         <v>353</v>
       </c>
       <c r="X8" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16">
@@ -6702,7 +6725,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="9"/>
       <c r="J9" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>250</v>
@@ -6735,7 +6758,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="9"/>
       <c r="J10" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>250</v>
@@ -6768,22 +6791,22 @@
       <c r="G11" s="12"/>
       <c r="H11" s="9"/>
       <c r="J11" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="N11" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="X11" t="s">
         <v>840</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="X11" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
@@ -7017,7 +7040,7 @@
         <v>108</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L18" t="s">
         <v>748</v>
@@ -7051,7 +7074,7 @@
         <v>56</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L19" t="s">
         <v>737</v>
@@ -7085,7 +7108,7 @@
         <v>56</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L20" t="s">
         <v>738</v>
@@ -7119,7 +7142,7 @@
         <v>56</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L21" t="s">
         <v>739</v>
@@ -7153,7 +7176,7 @@
         <v>56</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L22" t="s">
         <v>740</v>
@@ -7187,7 +7210,7 @@
         <v>56</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>58</v>
@@ -7218,26 +7241,26 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="L24" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="O24" s="14"/>
       <c r="W24" t="s">
         <v>391</v>
       </c>
       <c r="X24" t="s">
-        <v>26</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="16">
@@ -7487,8 +7510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A60D11B-392C-BB4D-A759-2174D7B5506D}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7496,7 +7519,7 @@
     <col min="10" max="10" width="22.1640625" customWidth="1"/>
     <col min="12" max="12" width="22.33203125" customWidth="1"/>
     <col min="13" max="13" width="17.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16">
@@ -7511,10 +7534,10 @@
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -7523,7 +7546,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -7538,7 +7561,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -7550,7 +7573,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -7580,7 +7603,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16">
@@ -7642,7 +7665,7 @@
         <v>26</v>
       </c>
       <c r="X3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
@@ -7696,13 +7719,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="9"/>
       <c r="J5" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K5" s="47" t="s">
         <v>250</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -7762,23 +7785,23 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
-      <c r="J7" t="s">
+      <c r="J7" s="28" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="54" t="s">
-        <v>732</v>
+      <c r="X7" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
@@ -7832,7 +7855,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="9"/>
       <c r="J9" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>250</v>
@@ -7865,7 +7888,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="9"/>
       <c r="J10" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>250</v>
@@ -7898,22 +7921,22 @@
       <c r="G11" s="12"/>
       <c r="H11" s="9"/>
       <c r="J11" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="N11" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="X11" t="s">
         <v>840</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="X11" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="57" customFormat="1" ht="16">
@@ -8128,7 +8151,7 @@
         <v>56</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>58</v>
@@ -8159,26 +8182,26 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14" t="s">
-        <v>40</v>
+        <v>850</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>40</v>
+        <v>851</v>
       </c>
       <c r="L24" t="s">
-        <v>40</v>
+        <v>852</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>40</v>
+        <v>838</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>40</v>
+        <v>839</v>
       </c>
       <c r="O24" s="14"/>
       <c r="W24" t="s">
         <v>391</v>
       </c>
       <c r="X24" t="s">
-        <v>26</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="16">
@@ -8418,9 +8441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8562BC4D-AD41-4A56-AB1A-694036E1F01A}">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8454,10 +8477,10 @@
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -8466,7 +8489,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -8481,7 +8504,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -8493,7 +8516,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -8523,7 +8546,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="20">
@@ -8609,7 +8632,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K4" s="47" t="s">
         <v>250</v>
@@ -8714,10 +8737,10 @@
         <v>420</v>
       </c>
       <c r="K7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M7" t="s">
         <v>421</v>
@@ -8746,10 +8769,10 @@
         <v>56</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
@@ -8778,10 +8801,10 @@
         <v>56</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M9" t="s">
         <v>26</v>
@@ -8810,7 +8833,7 @@
         <v>56</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L10" t="s">
         <v>72</v>
@@ -8842,7 +8865,7 @@
         <v>56</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L11" t="s">
         <v>78</v>
@@ -8874,10 +8897,10 @@
         <v>56</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -8906,7 +8929,7 @@
         <v>420</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L13" t="s">
         <v>434</v>
@@ -8941,7 +8964,7 @@
         <v>183</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L14" t="s">
         <v>186</v>
@@ -8976,10 +8999,10 @@
         <v>183</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s">
         <v>184</v>
@@ -9011,10 +9034,10 @@
         <v>183</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s">
         <v>184</v>
@@ -9046,7 +9069,7 @@
         <v>183</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L17" t="s">
         <v>186</v>
@@ -9082,10 +9105,10 @@
         <v>183</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s">
         <v>184</v>
@@ -9117,10 +9140,10 @@
         <v>183</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s">
         <v>184</v>
@@ -9152,7 +9175,7 @@
         <v>183</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L20" t="s">
         <v>186</v>
@@ -9187,10 +9210,10 @@
         <v>183</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s">
         <v>184</v>
@@ -9222,10 +9245,10 @@
         <v>183</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s">
         <v>184</v>
@@ -9257,7 +9280,7 @@
         <v>420</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L23" t="s">
         <v>457</v>
@@ -9347,7 +9370,7 @@
         <v>26</v>
       </c>
       <c r="X24" s="30" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="16">
@@ -9465,13 +9488,13 @@
         <v>24</v>
       </c>
       <c r="J27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
         <v>752</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="L27" t="s">
-        <v>753</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -9500,13 +9523,13 @@
         <v>24</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>752</v>
+        <v>36</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="L28" t="s">
-        <v>754</v>
+        <v>250</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>753</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -9520,8 +9543,8 @@
       <c r="W28" t="s">
         <v>468</v>
       </c>
-      <c r="X28" t="s">
-        <v>26</v>
+      <c r="X28" s="82" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="16">
@@ -9535,13 +9558,13 @@
         <v>24</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>752</v>
+        <v>36</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="L29" t="s">
-        <v>755</v>
+        <v>250</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="M29" t="s">
         <v>26</v>
@@ -9555,8 +9578,8 @@
       <c r="W29" t="s">
         <v>468</v>
       </c>
-      <c r="X29" t="s">
-        <v>26</v>
+      <c r="X29" s="82" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="16">
@@ -9570,13 +9593,13 @@
         <v>24</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>752</v>
+        <v>36</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="L30" t="s">
-        <v>756</v>
+        <v>250</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>755</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -9590,8 +9613,8 @@
       <c r="W30" t="s">
         <v>468</v>
       </c>
-      <c r="X30" t="s">
-        <v>26</v>
+      <c r="X30" s="82" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="16">
@@ -9605,13 +9628,13 @@
         <v>24</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>752</v>
+        <v>36</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="L31" t="s">
-        <v>757</v>
+        <v>250</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>756</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -9625,8 +9648,8 @@
       <c r="W31" t="s">
         <v>468</v>
       </c>
-      <c r="X31" t="s">
-        <v>26</v>
+      <c r="X31" s="82" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="16">
@@ -9634,19 +9657,19 @@
         <v>477</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="82" t="s">
         <v>250</v>
       </c>
       <c r="L32" t="s">
-        <v>862</v>
+        <v>47</v>
       </c>
       <c r="M32" t="s">
         <v>250</v>
@@ -9669,28 +9692,28 @@
         <v>477</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="L33" t="s">
-        <v>861</v>
+      <c r="J33" s="82" t="s">
+        <v>420</v>
+      </c>
+      <c r="K33" s="82" t="s">
+        <v>704</v>
+      </c>
+      <c r="L33" s="82" t="s">
+        <v>478</v>
       </c>
       <c r="M33" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" t="s">
-        <v>39</v>
+        <v>433</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>423</v>
       </c>
       <c r="W33" t="s">
         <v>468</v>
@@ -9704,7 +9727,7 @@
         <v>477</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>24</v>
@@ -9713,10 +9736,10 @@
         <v>420</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L34" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="M34" t="s">
         <v>421</v>
@@ -9725,15 +9748,15 @@
         <v>433</v>
       </c>
       <c r="X34" t="s">
-        <v>845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="16">
       <c r="A35" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>24</v>
@@ -9742,10 +9765,10 @@
         <v>420</v>
       </c>
       <c r="K35" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L35" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M35" t="s">
         <v>421</v>
@@ -9757,18 +9780,18 @@
         <v>40</v>
       </c>
       <c r="W35" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="X35" t="s">
-        <v>26</v>
+        <v>858</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="16">
       <c r="A36" s="19" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>24</v>
@@ -9777,10 +9800,10 @@
         <v>108</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L36" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M36" t="s">
         <v>109</v>
@@ -10210,7 +10233,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10219,8 +10242,9 @@
     <col min="6" max="6" width="4.83203125" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="38.5" customWidth="1"/>
+    <col min="12" max="12" width="65.1640625" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" customWidth="1"/>
     <col min="14" max="14" width="32.5" customWidth="1"/>
     <col min="15" max="15" width="18.83203125" customWidth="1"/>
@@ -10229,20 +10253,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="27">
       <c r="A1" s="79" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="74" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -10251,7 +10275,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -10266,7 +10290,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -10278,7 +10302,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -10308,7 +10332,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="20">
@@ -10423,63 +10447,63 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L5" t="s">
+        <v>768</v>
+      </c>
+      <c r="M5" t="s">
+        <v>490</v>
+      </c>
+      <c r="N5" t="s">
+        <v>491</v>
+      </c>
+      <c r="O5" t="s">
+        <v>771</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" t="s">
         <v>769</v>
-      </c>
-      <c r="M5" t="s">
-        <v>489</v>
-      </c>
-      <c r="N5" t="s">
-        <v>490</v>
-      </c>
-      <c r="O5" t="s">
-        <v>772</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16">
       <c r="A6" s="19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E6" t="s">
         <v>390</v>
       </c>
       <c r="J6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K6" t="s">
+        <v>762</v>
+      </c>
+      <c r="L6" t="s">
         <v>763</v>
       </c>
-      <c r="L6" t="s">
-        <v>764</v>
-      </c>
       <c r="M6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P6" t="s">
         <v>26</v>
@@ -10497,31 +10521,31 @@
     </row>
     <row r="7" spans="1:24" ht="16">
       <c r="A7" s="19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
         <v>390</v>
       </c>
       <c r="J7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P7" t="s">
         <v>26</v>
@@ -10539,31 +10563,31 @@
     </row>
     <row r="8" spans="1:24" ht="16">
       <c r="A8" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E8" t="s">
         <v>390</v>
       </c>
       <c r="J8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P8" t="s">
         <v>26</v>
@@ -10576,36 +10600,36 @@
       </c>
       <c r="S8" s="28"/>
       <c r="X8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16">
       <c r="A9" s="19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E9" t="s">
         <v>390</v>
       </c>
       <c r="J9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P9" t="s">
         <v>26</v>
@@ -10623,31 +10647,31 @@
     </row>
     <row r="10" spans="1:24" ht="16">
       <c r="A10" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E10" t="s">
         <v>390</v>
       </c>
       <c r="J10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P10" t="s">
         <v>26</v>
@@ -10665,31 +10689,31 @@
     </row>
     <row r="11" spans="1:24" ht="16">
       <c r="A11" s="19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E11" t="s">
         <v>390</v>
       </c>
       <c r="J11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L11" t="s">
+        <v>770</v>
+      </c>
+      <c r="M11" t="s">
+        <v>490</v>
+      </c>
+      <c r="N11" t="s">
+        <v>491</v>
+      </c>
+      <c r="O11" t="s">
         <v>771</v>
-      </c>
-      <c r="M11" t="s">
-        <v>489</v>
-      </c>
-      <c r="N11" t="s">
-        <v>490</v>
-      </c>
-      <c r="O11" t="s">
-        <v>772</v>
       </c>
       <c r="P11" t="s">
         <v>26</v>
@@ -10702,7 +10726,7 @@
       </c>
       <c r="S11" s="28"/>
       <c r="X11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
@@ -11084,15 +11108,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB492FC-E2AD-4944-9629-2670233B8556}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X19" sqref="X19"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="40.6640625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
@@ -11102,20 +11126,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16">
       <c r="A1" s="74" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -11124,7 +11148,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -11139,7 +11163,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -11151,7 +11175,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -11181,7 +11205,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="20">
@@ -11258,10 +11282,10 @@
     </row>
     <row r="4" spans="1:24" ht="16">
       <c r="A4" s="19" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>24</v>
@@ -11270,7 +11294,7 @@
         <v>183</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L4" t="s">
         <v>186</v>
@@ -11282,15 +11306,15 @@
         <v>185</v>
       </c>
       <c r="X4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16">
       <c r="A5" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -11302,10 +11326,10 @@
         <v>183</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M5" t="s">
         <v>184</v>
@@ -11319,10 +11343,10 @@
     </row>
     <row r="6" spans="1:24" ht="16">
       <c r="A6" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -11334,10 +11358,10 @@
         <v>183</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M6" t="s">
         <v>184</v>
@@ -11351,10 +11375,10 @@
     </row>
     <row r="7" spans="1:24" ht="16">
       <c r="A7" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -11366,7 +11390,7 @@
         <v>183</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L7" t="s">
         <v>186</v>
@@ -11378,15 +11402,15 @@
         <v>185</v>
       </c>
       <c r="X7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
       <c r="A8" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -11398,10 +11422,10 @@
         <v>183</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M8" t="s">
         <v>184</v>
@@ -11415,10 +11439,10 @@
     </row>
     <row r="9" spans="1:24" ht="16">
       <c r="A9" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -11430,10 +11454,10 @@
         <v>183</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="M9" t="s">
         <v>184</v>
@@ -11450,7 +11474,7 @@
         <v>455</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -11459,22 +11483,22 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>40</v>
+        <v>704</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>860</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>421</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="W10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X10" t="s">
         <v>26</v>
@@ -11482,10 +11506,10 @@
     </row>
     <row r="11" spans="1:24" ht="16">
       <c r="A11" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -11545,7 +11569,7 @@
         <v>26</v>
       </c>
       <c r="X11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
@@ -11562,13 +11586,13 @@
         <v>26</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>250</v>
       </c>
       <c r="L12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -11585,7 +11609,7 @@
         <v>464</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -11593,31 +11617,31 @@
       <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="L13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="28" t="s">
         <v>40</v>
       </c>
       <c r="X13" t="s">
-        <v>26</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16">
       <c r="A14" s="19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -11625,31 +11649,31 @@
       <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="28" t="s">
         <v>40</v>
       </c>
       <c r="X14" t="s">
-        <v>26</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16">
       <c r="A15" s="19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -11657,31 +11681,31 @@
       <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="28" t="s">
         <v>40</v>
       </c>
       <c r="X15" t="s">
-        <v>26</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16">
       <c r="A16" s="19" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -11689,31 +11713,31 @@
       <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="K16" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="L16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="28" t="s">
         <v>40</v>
       </c>
       <c r="X16" t="s">
-        <v>26</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="16">
       <c r="A17" s="19" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -11721,31 +11745,31 @@
       <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="K17" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="L17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="28" t="s">
         <v>40</v>
       </c>
       <c r="X17" t="s">
-        <v>26</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16">
       <c r="A18" s="19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -11754,7 +11778,7 @@
         <v>26</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>250</v>
@@ -11774,10 +11798,10 @@
     </row>
     <row r="19" spans="1:24" ht="16">
       <c r="A19" s="19" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -11789,10 +11813,10 @@
         <v>420</v>
       </c>
       <c r="K19" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L19" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="M19" t="s">
         <v>421</v>
@@ -11801,15 +11825,15 @@
         <v>422</v>
       </c>
       <c r="X19" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="16">
       <c r="A20" s="19" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -11821,10 +11845,10 @@
         <v>420</v>
       </c>
       <c r="K20" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L20" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="M20" t="s">
         <v>421</v>
@@ -11833,15 +11857,15 @@
         <v>422</v>
       </c>
       <c r="X20" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="16">
       <c r="A21" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -11850,13 +11874,13 @@
         <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>250</v>
       </c>
       <c r="L21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
@@ -11865,15 +11889,15 @@
         <v>37</v>
       </c>
       <c r="X21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16">
       <c r="A22" s="19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -11882,13 +11906,13 @@
         <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>250</v>
       </c>
       <c r="L22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
@@ -12271,11 +12295,11 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16">
       <c r="A1" s="74" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="3"/>
@@ -12297,10 +12321,10 @@
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -12309,7 +12333,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -12324,7 +12348,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -12336,7 +12360,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -12366,7 +12390,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16">
@@ -12375,78 +12399,78 @@
         <v>749</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
       <c r="A4" s="81" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -12455,10 +12479,10 @@
         <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -12484,7 +12508,7 @@
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L5" t="s">
         <v>72</v>
@@ -12501,10 +12525,10 @@
     </row>
     <row r="6" spans="1:24" ht="16">
       <c r="A6" s="81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -12513,7 +12537,7 @@
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L6" t="s">
         <v>78</v>
@@ -12530,16 +12554,16 @@
     </row>
     <row r="7" spans="1:24" ht="16">
       <c r="A7" s="81" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K7" s="47" t="s">
         <v>250</v>
@@ -12559,16 +12583,16 @@
     </row>
     <row r="8" spans="1:24" ht="16">
       <c r="A8" s="81" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K8" t="s">
         <v>250</v>
@@ -12588,10 +12612,10 @@
     </row>
     <row r="9" spans="1:24" ht="16">
       <c r="A9" s="19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>26</v>
@@ -12657,15 +12681,15 @@
         <v>26</v>
       </c>
       <c r="X9" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16">
       <c r="A10" s="19" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>26</v>
@@ -12731,15 +12755,15 @@
         <v>26</v>
       </c>
       <c r="X10" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16">
       <c r="A11" s="19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>26</v>
@@ -12805,15 +12829,15 @@
         <v>26</v>
       </c>
       <c r="X11" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
       <c r="A12" s="19" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>26</v>
@@ -12879,15 +12903,15 @@
         <v>26</v>
       </c>
       <c r="X12" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="16">
       <c r="A13" s="19" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>26</v>
@@ -12953,15 +12977,15 @@
         <v>26</v>
       </c>
       <c r="X13" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16">
       <c r="A14" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>26</v>
@@ -13027,33 +13051,33 @@
         <v>26</v>
       </c>
       <c r="X14" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16">
       <c r="A15" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E15" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J15" t="s">
+        <v>780</v>
+      </c>
+      <c r="K15" t="s">
+        <v>704</v>
+      </c>
+      <c r="L15" t="s">
+        <v>783</v>
+      </c>
+      <c r="M15" t="s">
         <v>781</v>
       </c>
-      <c r="K15" t="s">
-        <v>703</v>
-      </c>
-      <c r="L15" t="s">
-        <v>784</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>782</v>
-      </c>
-      <c r="N15" t="s">
-        <v>783</v>
       </c>
       <c r="X15" t="s">
         <v>26</v>
@@ -13061,28 +13085,28 @@
     </row>
     <row r="16" spans="1:24" ht="16">
       <c r="A16" s="81" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K16" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L16" s="66" t="s">
         <v>228</v>
       </c>
       <c r="M16" t="s">
+        <v>781</v>
+      </c>
+      <c r="N16" t="s">
         <v>782</v>
-      </c>
-      <c r="N16" t="s">
-        <v>783</v>
       </c>
       <c r="X16" t="s">
         <v>26</v>
@@ -13090,28 +13114,28 @@
     </row>
     <row r="17" spans="1:24" ht="16">
       <c r="A17" s="81" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J17" t="s">
+        <v>780</v>
+      </c>
+      <c r="K17" t="s">
+        <v>704</v>
+      </c>
+      <c r="L17" s="66" t="s">
+        <v>698</v>
+      </c>
+      <c r="M17" t="s">
         <v>781</v>
       </c>
-      <c r="K17" t="s">
-        <v>703</v>
-      </c>
-      <c r="L17" s="66" t="s">
-        <v>697</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>782</v>
-      </c>
-      <c r="N17" t="s">
-        <v>783</v>
       </c>
       <c r="X17" t="s">
         <v>26</v>
@@ -13119,28 +13143,28 @@
     </row>
     <row r="18" spans="1:24" ht="16">
       <c r="A18" s="81" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J18" t="s">
+        <v>780</v>
+      </c>
+      <c r="K18" t="s">
+        <v>704</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>796</v>
+      </c>
+      <c r="M18" t="s">
         <v>781</v>
       </c>
-      <c r="K18" t="s">
-        <v>703</v>
-      </c>
-      <c r="L18" s="66" t="s">
-        <v>797</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>782</v>
-      </c>
-      <c r="N18" t="s">
-        <v>783</v>
       </c>
       <c r="X18" t="s">
         <v>26</v>
@@ -13148,28 +13172,28 @@
     </row>
     <row r="19" spans="1:24" ht="16">
       <c r="A19" s="81" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J19" t="s">
+        <v>780</v>
+      </c>
+      <c r="K19" t="s">
+        <v>704</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>797</v>
+      </c>
+      <c r="M19" t="s">
         <v>781</v>
       </c>
-      <c r="K19" t="s">
-        <v>703</v>
-      </c>
-      <c r="L19" s="66" t="s">
-        <v>798</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>782</v>
-      </c>
-      <c r="N19" t="s">
-        <v>783</v>
       </c>
       <c r="X19" t="s">
         <v>26</v>
@@ -13177,28 +13201,28 @@
     </row>
     <row r="20" spans="1:24" ht="16">
       <c r="A20" s="81" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J20" t="s">
+        <v>780</v>
+      </c>
+      <c r="K20" t="s">
+        <v>704</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>794</v>
+      </c>
+      <c r="M20" t="s">
         <v>781</v>
       </c>
-      <c r="K20" t="s">
-        <v>703</v>
-      </c>
-      <c r="L20" s="66" t="s">
-        <v>795</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>782</v>
-      </c>
-      <c r="N20" t="s">
-        <v>783</v>
       </c>
       <c r="X20" t="s">
         <v>26</v>
@@ -13206,28 +13230,28 @@
     </row>
     <row r="21" spans="1:24" ht="16">
       <c r="A21" s="81" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J21" t="s">
+        <v>780</v>
+      </c>
+      <c r="K21" t="s">
+        <v>704</v>
+      </c>
+      <c r="L21" s="66" t="s">
+        <v>793</v>
+      </c>
+      <c r="M21" t="s">
         <v>781</v>
       </c>
-      <c r="K21" t="s">
-        <v>703</v>
-      </c>
-      <c r="L21" s="66" t="s">
-        <v>794</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>782</v>
-      </c>
-      <c r="N21" t="s">
-        <v>783</v>
       </c>
       <c r="X21" t="s">
         <v>26</v>
@@ -13235,28 +13259,28 @@
     </row>
     <row r="22" spans="1:24" ht="16">
       <c r="A22" s="81" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J22" t="s">
+        <v>780</v>
+      </c>
+      <c r="K22" t="s">
+        <v>704</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>791</v>
+      </c>
+      <c r="M22" t="s">
         <v>781</v>
       </c>
-      <c r="K22" t="s">
-        <v>703</v>
-      </c>
-      <c r="L22" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>782</v>
-      </c>
-      <c r="N22" t="s">
-        <v>783</v>
       </c>
       <c r="X22" t="s">
         <v>26</v>
@@ -13264,28 +13288,28 @@
     </row>
     <row r="23" spans="1:24" ht="16">
       <c r="A23" s="81" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J23" t="s">
+        <v>780</v>
+      </c>
+      <c r="K23" t="s">
+        <v>704</v>
+      </c>
+      <c r="L23" s="66" t="s">
+        <v>792</v>
+      </c>
+      <c r="M23" t="s">
         <v>781</v>
       </c>
-      <c r="K23" t="s">
-        <v>703</v>
-      </c>
-      <c r="L23" s="66" t="s">
-        <v>793</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>782</v>
-      </c>
-      <c r="N23" t="s">
-        <v>783</v>
       </c>
       <c r="X23" t="s">
         <v>26</v>
@@ -13293,28 +13317,28 @@
     </row>
     <row r="24" spans="1:24" ht="16">
       <c r="A24" s="81" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J24" t="s">
+        <v>780</v>
+      </c>
+      <c r="K24" t="s">
+        <v>704</v>
+      </c>
+      <c r="L24" s="66" t="s">
+        <v>786</v>
+      </c>
+      <c r="M24" t="s">
         <v>781</v>
       </c>
-      <c r="K24" t="s">
-        <v>703</v>
-      </c>
-      <c r="L24" s="66" t="s">
-        <v>787</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>782</v>
-      </c>
-      <c r="N24" t="s">
-        <v>783</v>
       </c>
       <c r="X24" t="s">
         <v>26</v>
@@ -13322,28 +13346,28 @@
     </row>
     <row r="25" spans="1:24" ht="16">
       <c r="A25" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J25" t="s">
+        <v>780</v>
+      </c>
+      <c r="K25" t="s">
+        <v>704</v>
+      </c>
+      <c r="L25" t="s">
+        <v>787</v>
+      </c>
+      <c r="M25" t="s">
         <v>781</v>
       </c>
-      <c r="K25" t="s">
-        <v>703</v>
-      </c>
-      <c r="L25" t="s">
-        <v>788</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>782</v>
-      </c>
-      <c r="N25" t="s">
-        <v>783</v>
       </c>
       <c r="X25" t="s">
         <v>26</v>
@@ -13351,28 +13375,28 @@
     </row>
     <row r="26" spans="1:24" ht="16">
       <c r="A26" s="19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J26" t="s">
+        <v>780</v>
+      </c>
+      <c r="K26" t="s">
+        <v>704</v>
+      </c>
+      <c r="L26" t="s">
+        <v>788</v>
+      </c>
+      <c r="M26" t="s">
         <v>781</v>
       </c>
-      <c r="K26" t="s">
-        <v>703</v>
-      </c>
-      <c r="L26" t="s">
-        <v>789</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>782</v>
-      </c>
-      <c r="N26" t="s">
-        <v>783</v>
       </c>
       <c r="X26" t="s">
         <v>26</v>
@@ -13380,28 +13404,28 @@
     </row>
     <row r="27" spans="1:24" ht="16">
       <c r="A27" s="19" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E27" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J27" t="s">
+        <v>780</v>
+      </c>
+      <c r="K27" t="s">
+        <v>704</v>
+      </c>
+      <c r="L27" t="s">
+        <v>789</v>
+      </c>
+      <c r="M27" t="s">
         <v>781</v>
       </c>
-      <c r="K27" t="s">
-        <v>703</v>
-      </c>
-      <c r="L27" t="s">
-        <v>790</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>782</v>
-      </c>
-      <c r="N27" t="s">
-        <v>783</v>
       </c>
       <c r="X27" t="s">
         <v>26</v>
@@ -13409,28 +13433,28 @@
     </row>
     <row r="28" spans="1:24" ht="16">
       <c r="A28" s="19" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E28" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J28" t="s">
+        <v>780</v>
+      </c>
+      <c r="K28" t="s">
+        <v>704</v>
+      </c>
+      <c r="L28" t="s">
+        <v>790</v>
+      </c>
+      <c r="M28" t="s">
         <v>781</v>
       </c>
-      <c r="K28" t="s">
-        <v>703</v>
-      </c>
-      <c r="L28" t="s">
-        <v>791</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>782</v>
-      </c>
-      <c r="N28" t="s">
-        <v>783</v>
       </c>
       <c r="X28" t="s">
         <v>26</v>
@@ -13438,28 +13462,28 @@
     </row>
     <row r="29" spans="1:24" ht="16">
       <c r="A29" s="19" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E29" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J29" t="s">
+        <v>780</v>
+      </c>
+      <c r="K29" t="s">
+        <v>704</v>
+      </c>
+      <c r="L29" t="s">
+        <v>785</v>
+      </c>
+      <c r="M29" t="s">
         <v>781</v>
       </c>
-      <c r="K29" t="s">
-        <v>703</v>
-      </c>
-      <c r="L29" t="s">
-        <v>786</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>782</v>
-      </c>
-      <c r="N29" t="s">
-        <v>783</v>
       </c>
       <c r="X29" t="s">
         <v>26</v>
@@ -13467,28 +13491,28 @@
     </row>
     <row r="30" spans="1:24" ht="16">
       <c r="A30" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E30" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J30" t="s">
+        <v>780</v>
+      </c>
+      <c r="K30" t="s">
+        <v>704</v>
+      </c>
+      <c r="L30" t="s">
+        <v>784</v>
+      </c>
+      <c r="M30" t="s">
         <v>781</v>
       </c>
-      <c r="K30" t="s">
-        <v>703</v>
-      </c>
-      <c r="L30" t="s">
-        <v>785</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>782</v>
-      </c>
-      <c r="N30" t="s">
-        <v>783</v>
       </c>
       <c r="X30" t="s">
         <v>26</v>
@@ -13496,28 +13520,28 @@
     </row>
     <row r="31" spans="1:24" ht="16">
       <c r="A31" s="19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E31" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J31" t="s">
+        <v>780</v>
+      </c>
+      <c r="K31" t="s">
+        <v>704</v>
+      </c>
+      <c r="L31" t="s">
+        <v>784</v>
+      </c>
+      <c r="M31" t="s">
         <v>781</v>
       </c>
-      <c r="K31" t="s">
-        <v>703</v>
-      </c>
-      <c r="L31" t="s">
-        <v>785</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>782</v>
-      </c>
-      <c r="N31" t="s">
-        <v>783</v>
       </c>
       <c r="X31" t="s">
         <v>26</v>
@@ -13525,10 +13549,10 @@
     </row>
     <row r="32" spans="1:24" ht="16">
       <c r="A32" s="19" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>26</v>
@@ -13594,15 +13618,15 @@
         <v>26</v>
       </c>
       <c r="X32" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="16">
       <c r="A33" s="19" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>26</v>
@@ -13668,7 +13692,7 @@
         <v>26</v>
       </c>
       <c r="X33" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="16">
@@ -13683,7 +13707,7 @@
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="16">
@@ -13707,7 +13731,7 @@
         <v>20</v>
       </c>
       <c r="L38" s="65" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="16">
@@ -13716,7 +13740,7 @@
         <v>20</v>
       </c>
       <c r="L39" s="65" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="16">
@@ -13725,7 +13749,7 @@
         <v>20</v>
       </c>
       <c r="L40" s="65" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="16">
@@ -13734,7 +13758,7 @@
         <v>20</v>
       </c>
       <c r="L41" s="65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="16">
@@ -13743,7 +13767,7 @@
         <v>20</v>
       </c>
       <c r="L42" s="65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="16">
@@ -13752,7 +13776,7 @@
         <v>20</v>
       </c>
       <c r="L43" s="65" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="16">
@@ -13761,7 +13785,7 @@
         <v>20</v>
       </c>
       <c r="L44" s="65" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="16">
@@ -13770,7 +13794,7 @@
         <v>20</v>
       </c>
       <c r="L45" s="65" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="16">
@@ -13779,7 +13803,7 @@
         <v>20</v>
       </c>
       <c r="L46" s="65" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="16">
@@ -13788,7 +13812,7 @@
         <v>20</v>
       </c>
       <c r="L47" s="65" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="16">
@@ -13914,32 +13938,33 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
     <col min="14" max="14" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16">
       <c r="A1" s="74" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -13948,7 +13973,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -13963,7 +13988,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -13975,7 +14000,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -14005,7 +14030,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="20">
@@ -14082,10 +14107,10 @@
     </row>
     <row r="4" spans="1:24" ht="16">
       <c r="A4" s="19" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -14156,10 +14181,10 @@
     </row>
     <row r="5" spans="1:24" ht="16">
       <c r="A5" s="19" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -14168,7 +14193,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>862</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -14183,30 +14208,30 @@
         <v>40</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="N5" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="X5" t="s">
         <v>840</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="X5" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16">
       <c r="A6" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>604</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>603</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -14215,7 +14240,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>862</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -14230,30 +14255,30 @@
         <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="N6" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="X6" t="s">
         <v>840</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="X6" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="16">
       <c r="A7" s="19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -14262,7 +14287,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>862</v>
       </c>
       <c r="F7" t="s">
         <v>40</v>
@@ -14277,30 +14302,30 @@
         <v>40</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="X7" t="s">
         <v>840</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="X7" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
       <c r="A8" s="19" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -14309,7 +14334,7 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>862</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -14324,22 +14349,22 @@
         <v>40</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="N8" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="X8" t="s">
         <v>840</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="X8" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16">
@@ -14518,7 +14543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D715D161-2A16-4C01-B881-EB67438C4A87}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
@@ -14535,19 +14560,19 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16">
       <c r="A1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -14556,7 +14581,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -14571,7 +14596,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -14583,7 +14608,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -14613,7 +14638,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16">
@@ -14622,70 +14647,70 @@
         <v>749</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
@@ -14693,13 +14718,13 @@
         <v>410</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>250</v>
@@ -14722,13 +14747,13 @@
         <v>415</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>250</v>
@@ -14748,16 +14773,16 @@
     </row>
     <row r="6" spans="1:24" ht="16">
       <c r="A6" s="19" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>250</v>
@@ -14777,28 +14802,28 @@
     </row>
     <row r="7" spans="1:24" ht="16">
       <c r="A7" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J7" t="s">
+        <v>780</v>
+      </c>
+      <c r="K7" t="s">
+        <v>704</v>
+      </c>
+      <c r="L7" t="s">
+        <v>783</v>
+      </c>
+      <c r="M7" t="s">
         <v>781</v>
       </c>
-      <c r="K7" t="s">
-        <v>703</v>
-      </c>
-      <c r="L7" t="s">
-        <v>784</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>782</v>
-      </c>
-      <c r="N7" t="s">
-        <v>783</v>
       </c>
       <c r="X7" t="s">
         <v>26</v>
@@ -14806,28 +14831,28 @@
     </row>
     <row r="8" spans="1:24" ht="16">
       <c r="A8" s="19" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L8" s="66" t="s">
         <v>228</v>
       </c>
       <c r="M8" t="s">
+        <v>781</v>
+      </c>
+      <c r="N8" t="s">
         <v>782</v>
-      </c>
-      <c r="N8" t="s">
-        <v>783</v>
       </c>
       <c r="X8" t="s">
         <v>26</v>
@@ -14835,28 +14860,28 @@
     </row>
     <row r="9" spans="1:24" ht="16">
       <c r="A9" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J9" t="s">
+        <v>780</v>
+      </c>
+      <c r="K9" t="s">
+        <v>704</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>698</v>
+      </c>
+      <c r="M9" t="s">
         <v>781</v>
       </c>
-      <c r="K9" t="s">
-        <v>703</v>
-      </c>
-      <c r="L9" s="66" t="s">
-        <v>697</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>782</v>
-      </c>
-      <c r="N9" t="s">
-        <v>783</v>
       </c>
       <c r="X9" t="s">
         <v>26</v>
@@ -14864,28 +14889,28 @@
     </row>
     <row r="10" spans="1:24" ht="16">
       <c r="A10" s="19" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J10" t="s">
+        <v>780</v>
+      </c>
+      <c r="K10" t="s">
+        <v>704</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>786</v>
+      </c>
+      <c r="M10" t="s">
         <v>781</v>
       </c>
-      <c r="K10" t="s">
-        <v>703</v>
-      </c>
-      <c r="L10" s="66" t="s">
-        <v>787</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>782</v>
-      </c>
-      <c r="N10" t="s">
-        <v>783</v>
       </c>
       <c r="X10" t="s">
         <v>26</v>
@@ -14893,28 +14918,28 @@
     </row>
     <row r="11" spans="1:24" ht="16">
       <c r="A11" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J11" t="s">
+        <v>780</v>
+      </c>
+      <c r="K11" t="s">
+        <v>704</v>
+      </c>
+      <c r="L11" t="s">
+        <v>787</v>
+      </c>
+      <c r="M11" t="s">
         <v>781</v>
       </c>
-      <c r="K11" t="s">
-        <v>703</v>
-      </c>
-      <c r="L11" t="s">
-        <v>788</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>782</v>
-      </c>
-      <c r="N11" t="s">
-        <v>783</v>
       </c>
       <c r="X11" t="s">
         <v>26</v>
@@ -14922,28 +14947,28 @@
     </row>
     <row r="12" spans="1:24" ht="16">
       <c r="A12" s="19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J12" t="s">
+        <v>780</v>
+      </c>
+      <c r="K12" t="s">
+        <v>704</v>
+      </c>
+      <c r="L12" t="s">
+        <v>788</v>
+      </c>
+      <c r="M12" t="s">
         <v>781</v>
       </c>
-      <c r="K12" t="s">
-        <v>703</v>
-      </c>
-      <c r="L12" t="s">
-        <v>789</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>782</v>
-      </c>
-      <c r="N12" t="s">
-        <v>783</v>
       </c>
       <c r="X12" t="s">
         <v>26</v>
@@ -14951,28 +14976,28 @@
     </row>
     <row r="13" spans="1:24" ht="16">
       <c r="A13" s="19" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J13" t="s">
+        <v>780</v>
+      </c>
+      <c r="K13" t="s">
+        <v>704</v>
+      </c>
+      <c r="L13" t="s">
+        <v>785</v>
+      </c>
+      <c r="M13" t="s">
         <v>781</v>
       </c>
-      <c r="K13" t="s">
-        <v>703</v>
-      </c>
-      <c r="L13" t="s">
-        <v>786</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>782</v>
-      </c>
-      <c r="N13" t="s">
-        <v>783</v>
       </c>
       <c r="X13" t="s">
         <v>26</v>
@@ -14980,28 +15005,28 @@
     </row>
     <row r="14" spans="1:24" ht="16">
       <c r="A14" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J14" t="s">
+        <v>780</v>
+      </c>
+      <c r="K14" t="s">
+        <v>704</v>
+      </c>
+      <c r="L14" t="s">
+        <v>818</v>
+      </c>
+      <c r="M14" t="s">
         <v>781</v>
       </c>
-      <c r="K14" t="s">
-        <v>703</v>
-      </c>
-      <c r="L14" t="s">
-        <v>819</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>782</v>
-      </c>
-      <c r="N14" t="s">
-        <v>783</v>
       </c>
       <c r="X14" t="s">
         <v>26</v>
@@ -15009,28 +15034,28 @@
     </row>
     <row r="15" spans="1:24" ht="16">
       <c r="A15" s="19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E15" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J15" t="s">
+        <v>780</v>
+      </c>
+      <c r="K15" t="s">
+        <v>704</v>
+      </c>
+      <c r="L15" t="s">
+        <v>818</v>
+      </c>
+      <c r="M15" t="s">
         <v>781</v>
       </c>
-      <c r="K15" t="s">
-        <v>703</v>
-      </c>
-      <c r="L15" t="s">
-        <v>819</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>782</v>
-      </c>
-      <c r="N15" t="s">
-        <v>783</v>
       </c>
       <c r="X15" t="s">
         <v>26</v>
@@ -15038,28 +15063,28 @@
     </row>
     <row r="16" spans="1:24" ht="16">
       <c r="A16" s="19" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E16" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J16" t="s">
+        <v>780</v>
+      </c>
+      <c r="K16" t="s">
+        <v>704</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="M16" t="s">
         <v>781</v>
       </c>
-      <c r="K16" t="s">
-        <v>703</v>
-      </c>
-      <c r="L16" s="65" t="s">
-        <v>799</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>782</v>
-      </c>
-      <c r="N16" t="s">
-        <v>783</v>
       </c>
       <c r="X16" t="s">
         <v>26</v>
@@ -15067,28 +15092,28 @@
     </row>
     <row r="17" spans="1:24" ht="16">
       <c r="A17" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J17" t="s">
+        <v>780</v>
+      </c>
+      <c r="K17" t="s">
+        <v>704</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="M17" t="s">
         <v>781</v>
       </c>
-      <c r="K17" t="s">
-        <v>703</v>
-      </c>
-      <c r="L17" s="65" t="s">
-        <v>800</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>782</v>
-      </c>
-      <c r="N17" t="s">
-        <v>783</v>
       </c>
       <c r="X17" t="s">
         <v>26</v>
@@ -15256,7 +15281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D055B1B-6310-4D65-854F-0C222A67D095}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -15268,20 +15293,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16">
       <c r="A1" s="74" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="17" customHeight="1">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -15290,7 +15315,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -15305,7 +15330,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -15314,7 +15339,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>9</v>
@@ -15347,7 +15372,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16">
@@ -15356,78 +15381,78 @@
         <v>749</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
       <c r="A4" s="19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -15493,15 +15518,15 @@
         <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16">
       <c r="A5" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -15567,7 +15592,7 @@
         <v>26</v>
       </c>
       <c r="X5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16">
@@ -15886,8 +15911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D06521-A46F-4192-858A-32B0133F7972}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15916,7 +15941,7 @@
     </row>
     <row r="2" spans="1:27" ht="16">
       <c r="A2" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>137</v>
@@ -15932,7 +15957,7 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -15947,10 +15972,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>7</v>
@@ -15962,7 +15987,7 @@
         <v>8</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>10</v>
@@ -15992,7 +16017,7 @@
         <v>18</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -16073,7 +16098,7 @@
         <v>26</v>
       </c>
       <c r="AA3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16">
@@ -16181,7 +16206,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>250</v>
@@ -16250,7 +16275,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>250</v>
@@ -16317,7 +16342,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>250</v>
@@ -16394,7 +16419,7 @@
         <v>147</v>
       </c>
       <c r="AA8" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="16">
@@ -16416,13 +16441,13 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>250</v>
       </c>
       <c r="O9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P9" t="s">
         <v>150</v>
@@ -16440,7 +16465,7 @@
         <v>153</v>
       </c>
       <c r="AA9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="16">
@@ -16462,7 +16487,7 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>250</v>
@@ -16512,7 +16537,7 @@
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>250</v>
@@ -16562,7 +16587,7 @@
         <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>250</v>
@@ -16612,7 +16637,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>250</v>
@@ -16662,7 +16687,7 @@
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>250</v>
@@ -16712,7 +16737,7 @@
         <v>12</v>
       </c>
       <c r="M15" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>250</v>
@@ -16768,7 +16793,7 @@
         <v>13</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N16" s="36" t="s">
         <v>250</v>
@@ -16798,7 +16823,7 @@
         <v>164</v>
       </c>
       <c r="AA16" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="16">
@@ -16827,7 +16852,7 @@
         <v>14</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N17" s="36" t="s">
         <v>250</v>
@@ -16857,7 +16882,7 @@
         <v>164</v>
       </c>
       <c r="AA17" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="16">
@@ -16880,7 +16905,7 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>250</v>
@@ -16928,7 +16953,7 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>250</v>
@@ -16984,7 +17009,7 @@
         <v>17</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N20" s="36" t="s">
         <v>250</v>
@@ -17107,8 +17132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90562365-E534-4A3C-B437-457508669F0F}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17124,20 +17149,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16">
       <c r="A1" s="74" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -17146,7 +17171,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -17161,7 +17186,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -17173,7 +17198,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -17203,7 +17228,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16">
@@ -17212,96 +17237,96 @@
         <v>749</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
       <c r="A4" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E4" t="s">
         <v>390</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="M4" t="s">
         <v>808</v>
       </c>
-      <c r="K4" t="s">
-        <v>763</v>
-      </c>
-      <c r="L4" t="s">
-        <v>811</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>809</v>
-      </c>
-      <c r="N4" t="s">
-        <v>810</v>
       </c>
       <c r="X4" t="s">
         <v>26</v>
@@ -17309,28 +17334,28 @@
     </row>
     <row r="5" spans="1:24" ht="16">
       <c r="A5" s="19" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E5" t="s">
         <v>390</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>820</v>
       </c>
-      <c r="K5" t="s">
-        <v>821</v>
-      </c>
-      <c r="L5" t="s">
-        <v>823</v>
+      <c r="L5" s="28" t="s">
+        <v>822</v>
       </c>
       <c r="M5" t="s">
+        <v>808</v>
+      </c>
+      <c r="N5" t="s">
         <v>809</v>
-      </c>
-      <c r="N5" t="s">
-        <v>810</v>
       </c>
       <c r="X5" t="s">
         <v>26</v>
@@ -17338,28 +17363,28 @@
     </row>
     <row r="6" spans="1:24" ht="16">
       <c r="A6" s="19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E6" t="s">
-        <v>641</v>
-      </c>
-      <c r="J6" t="s">
+        <v>642</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="M6" t="s">
         <v>781</v>
       </c>
-      <c r="K6" t="s">
-        <v>703</v>
-      </c>
-      <c r="L6" t="s">
-        <v>789</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>782</v>
-      </c>
-      <c r="N6" t="s">
-        <v>783</v>
       </c>
       <c r="X6" t="s">
         <v>26</v>
@@ -17367,28 +17392,28 @@
     </row>
     <row r="7" spans="1:24" ht="16">
       <c r="A7" s="19" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E7" t="s">
         <v>390</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="M7" t="s">
         <v>808</v>
       </c>
-      <c r="K7" t="s">
-        <v>763</v>
-      </c>
-      <c r="L7" t="s">
-        <v>816</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>809</v>
-      </c>
-      <c r="N7" t="s">
-        <v>810</v>
       </c>
       <c r="X7" t="s">
         <v>26</v>
@@ -17396,28 +17421,28 @@
     </row>
     <row r="8" spans="1:24" ht="16">
       <c r="A8" s="19" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E8" t="s">
         <v>390</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="M8" t="s">
         <v>808</v>
       </c>
-      <c r="K8" t="s">
-        <v>763</v>
-      </c>
-      <c r="L8" t="s">
-        <v>817</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>809</v>
-      </c>
-      <c r="N8" t="s">
-        <v>810</v>
       </c>
       <c r="X8" t="s">
         <v>26</v>
@@ -17425,28 +17450,28 @@
     </row>
     <row r="9" spans="1:24" ht="16">
       <c r="A9" s="19" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E9" t="s">
         <v>390</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="M9" t="s">
         <v>808</v>
       </c>
-      <c r="K9" t="s">
-        <v>763</v>
-      </c>
-      <c r="L9" t="s">
-        <v>818</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>809</v>
-      </c>
-      <c r="N9" t="s">
-        <v>810</v>
       </c>
       <c r="X9" t="s">
         <v>26</v>
@@ -17454,28 +17479,28 @@
     </row>
     <row r="10" spans="1:24" ht="16">
       <c r="A10" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E10" t="s">
         <v>390</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="M10" t="s">
         <v>808</v>
       </c>
-      <c r="K10" t="s">
-        <v>763</v>
-      </c>
-      <c r="L10" t="s">
-        <v>818</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>809</v>
-      </c>
-      <c r="N10" t="s">
-        <v>810</v>
       </c>
       <c r="X10" t="s">
         <v>26</v>
@@ -17483,10 +17508,10 @@
     </row>
     <row r="11" spans="1:24" ht="16">
       <c r="A11" s="19" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>26</v>
@@ -17552,33 +17577,33 @@
         <v>26</v>
       </c>
       <c r="X11" s="30" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
       <c r="A12" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E12" t="s">
         <v>390</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="M12" t="s">
         <v>808</v>
       </c>
-      <c r="K12" t="s">
-        <v>763</v>
-      </c>
-      <c r="L12" t="s">
-        <v>812</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>809</v>
-      </c>
-      <c r="N12" t="s">
-        <v>810</v>
       </c>
       <c r="X12" t="s">
         <v>26</v>
@@ -17586,28 +17611,28 @@
     </row>
     <row r="13" spans="1:24" ht="16">
       <c r="A13" s="19" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E13" t="s">
         <v>390</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>820</v>
       </c>
-      <c r="K13" t="s">
-        <v>821</v>
-      </c>
-      <c r="L13" t="s">
-        <v>824</v>
+      <c r="L13" s="28" t="s">
+        <v>823</v>
       </c>
       <c r="M13" t="s">
+        <v>808</v>
+      </c>
+      <c r="N13" t="s">
         <v>809</v>
-      </c>
-      <c r="N13" t="s">
-        <v>810</v>
       </c>
       <c r="X13" t="s">
         <v>26</v>
@@ -17615,28 +17640,28 @@
     </row>
     <row r="14" spans="1:24" ht="16">
       <c r="A14" s="19" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E14" t="s">
         <v>390</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="M14" t="s">
         <v>808</v>
       </c>
-      <c r="K14" t="s">
-        <v>763</v>
-      </c>
-      <c r="L14" t="s">
-        <v>813</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>809</v>
-      </c>
-      <c r="N14" t="s">
-        <v>810</v>
       </c>
       <c r="X14" t="s">
         <v>26</v>
@@ -17644,28 +17669,28 @@
     </row>
     <row r="15" spans="1:24" ht="16">
       <c r="A15" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E15" t="s">
         <v>390</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s">
         <v>808</v>
       </c>
-      <c r="K15" t="s">
-        <v>763</v>
-      </c>
-      <c r="L15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>809</v>
-      </c>
-      <c r="N15" t="s">
-        <v>810</v>
       </c>
       <c r="X15" t="s">
         <v>26</v>
@@ -17673,28 +17698,28 @@
     </row>
     <row r="16" spans="1:24" ht="16">
       <c r="A16" s="19" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E16" t="s">
         <v>390</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="K16" s="28" t="s">
         <v>820</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" s="28" t="s">
         <v>821</v>
       </c>
-      <c r="L16" t="s">
-        <v>822</v>
-      </c>
       <c r="M16" t="s">
+        <v>808</v>
+      </c>
+      <c r="N16" t="s">
         <v>809</v>
-      </c>
-      <c r="N16" t="s">
-        <v>810</v>
       </c>
       <c r="X16" t="s">
         <v>26</v>
@@ -17702,86 +17727,86 @@
     </row>
     <row r="17" spans="1:24" ht="16">
       <c r="A17" s="19" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E17" t="s">
         <v>390</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="M17" t="s">
         <v>808</v>
       </c>
-      <c r="K17" t="s">
-        <v>763</v>
-      </c>
-      <c r="L17" t="s">
-        <v>814</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>809</v>
       </c>
-      <c r="N17" t="s">
-        <v>810</v>
-      </c>
       <c r="X17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16">
       <c r="A18" s="19" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E18" t="s">
         <v>390</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="M18" t="s">
         <v>808</v>
       </c>
-      <c r="K18" t="s">
-        <v>763</v>
-      </c>
-      <c r="L18" t="s">
-        <v>815</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>809</v>
       </c>
-      <c r="N18" t="s">
-        <v>810</v>
-      </c>
       <c r="X18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="16">
       <c r="A19" s="19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E19" t="s">
         <v>390</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
         <v>808</v>
       </c>
-      <c r="K19" t="s">
-        <v>763</v>
-      </c>
-      <c r="L19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>809</v>
-      </c>
-      <c r="N19" t="s">
-        <v>810</v>
       </c>
       <c r="X19" t="s">
         <v>26</v>
@@ -17878,17 +17903,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09FF5CD-8F16-42FD-AD8C-0F7B930B1A43}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="56.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" customWidth="1"/>
+    <col min="12" max="12" width="36.5" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
@@ -17896,20 +17921,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16">
       <c r="A1" s="74" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -17918,7 +17943,7 @@
         <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -17933,7 +17958,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -17945,7 +17970,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>10</v>
@@ -17975,7 +18000,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="20">
@@ -18052,22 +18077,22 @@
     </row>
     <row r="4" spans="1:24" ht="16">
       <c r="A4" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>26</v>
@@ -18081,17 +18106,17 @@
     </row>
     <row r="5" spans="1:24" ht="16">
       <c r="A5" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C5" s="80"/>
       <c r="J5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L5" t="s">
         <v>738</v>
@@ -18108,17 +18133,17 @@
     </row>
     <row r="6" spans="1:24" ht="16">
       <c r="A6" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C6" s="80"/>
       <c r="J6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L6" t="s">
         <v>739</v>
@@ -18135,17 +18160,17 @@
     </row>
     <row r="7" spans="1:24" ht="16">
       <c r="A7" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C7" s="80"/>
       <c r="J7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L7" t="s">
         <v>740</v>
@@ -18162,17 +18187,17 @@
     </row>
     <row r="8" spans="1:24" ht="16">
       <c r="A8" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C8" s="80"/>
       <c r="J8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>58</v>
@@ -18189,29 +18214,29 @@
     </row>
     <row r="9" spans="1:24" ht="16">
       <c r="A9" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C9" s="80"/>
       <c r="J9" s="14" t="s">
-        <v>40</v>
+        <v>863</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>864</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="W9" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="X9" t="s">
         <v>26</v>
@@ -18219,29 +18244,29 @@
     </row>
     <row r="10" spans="1:24" ht="16">
       <c r="A10" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C10" s="80"/>
       <c r="J10" s="14" t="s">
-        <v>828</v>
+        <v>863</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>865</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="W10" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="X10" t="s">
         <v>26</v>
@@ -18249,29 +18274,29 @@
     </row>
     <row r="11" spans="1:24" ht="16">
       <c r="A11" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C11" s="80"/>
       <c r="J11" s="14" t="s">
-        <v>828</v>
+        <v>863</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>866</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="W11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="X11" t="s">
         <v>26</v>
@@ -18279,20 +18304,20 @@
     </row>
     <row r="12" spans="1:24" ht="16">
       <c r="A12" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C12" s="80"/>
       <c r="J12" s="14" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L12" t="s">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>109</v>
@@ -18306,20 +18331,20 @@
     </row>
     <row r="13" spans="1:24" ht="16">
       <c r="A13" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C13" s="80"/>
       <c r="J13" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="L13" t="s">
         <v>826</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="L13" t="s">
-        <v>829</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>109</v>
@@ -18333,19 +18358,19 @@
     </row>
     <row r="14" spans="1:24" ht="16">
       <c r="A14" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C14" s="80"/>
       <c r="J14" s="14" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="L14" t="s">
+        <v>703</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="14" t="s">
@@ -18355,25 +18380,25 @@
         <v>110</v>
       </c>
       <c r="X14" t="s">
-        <v>26</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16">
       <c r="A15" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C15" s="80"/>
       <c r="J15" s="14" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L15" t="s">
-        <v>829</v>
+        <v>867</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>109</v>
@@ -18387,26 +18412,29 @@
     </row>
     <row r="16" spans="1:24" ht="16">
       <c r="A16" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C16" s="80"/>
       <c r="J16" s="14" t="s">
         <v>56</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>57</v>
+      </c>
+      <c r="X16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -18452,7 +18480,7 @@
     </row>
     <row r="2" spans="1:26" ht="17">
       <c r="A2" s="51" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>137</v>
@@ -18468,7 +18496,7 @@
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="44" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>3</v>
@@ -18483,7 +18511,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M2" s="44" t="s">
         <v>7</v>
@@ -18495,7 +18523,7 @@
         <v>8</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Q2" s="44" t="s">
         <v>10</v>
@@ -18525,7 +18553,7 @@
         <v>18</v>
       </c>
       <c r="Z2" s="41" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17">
@@ -18603,7 +18631,7 @@
         <v>26</v>
       </c>
       <c r="Z3" s="43" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
@@ -18701,7 +18729,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M5" s="47" t="s">
         <v>250</v>
@@ -18765,7 +18793,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M6" s="47" t="s">
         <v>250</v>
@@ -18825,7 +18853,7 @@
         <v>26</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M7" s="47" t="s">
         <v>250</v>
@@ -18881,7 +18909,7 @@
         <v>183</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N8" s="43" t="s">
         <v>186</v>
@@ -18936,10 +18964,10 @@
         <v>183</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N9" s="41" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O9" s="43" t="s">
         <v>184</v>
@@ -18982,7 +19010,7 @@
         <v>183</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N10" s="43" t="s">
         <v>191</v>
@@ -19040,7 +19068,7 @@
         <v>208</v>
       </c>
       <c r="M11" s="47" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N11" s="43" t="s">
         <v>193</v>
@@ -19265,7 +19293,7 @@
     </row>
     <row r="2" spans="1:27" ht="16">
       <c r="A2" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>137</v>
@@ -19281,7 +19309,7 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -19296,10 +19324,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>7</v>
@@ -19311,7 +19339,7 @@
         <v>8</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>10</v>
@@ -19341,7 +19369,7 @@
         <v>18</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -19422,7 +19450,7 @@
         <v>26</v>
       </c>
       <c r="AA3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16">
@@ -19528,7 +19556,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>250</v>
@@ -19599,7 +19627,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>250</v>
@@ -19666,7 +19694,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>250</v>
@@ -19732,7 +19760,7 @@
         <v>201</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O8" t="s">
         <v>204</v>
@@ -19797,7 +19825,7 @@
         <v>201</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O9" t="s">
         <v>206</v>
@@ -19862,10 +19890,10 @@
         <v>208</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>117</v>
@@ -19925,10 +19953,10 @@
         <v>201</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>202</v>
@@ -19988,10 +20016,10 @@
         <v>201</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>202</v>
@@ -20053,10 +20081,10 @@
         <v>201</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>202</v>
@@ -20118,7 +20146,7 @@
         <v>201</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O14" t="s">
         <v>215</v>
@@ -20145,7 +20173,7 @@
         <v>26</v>
       </c>
       <c r="AA14" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="16">
@@ -20181,7 +20209,7 @@
         <v>201</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O15" t="s">
         <v>215</v>
@@ -20211,7 +20239,7 @@
         <v>219</v>
       </c>
       <c r="AA15" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="16">
@@ -20244,10 +20272,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="N16" s="25" t="s">
         <v>711</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>710</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>40</v>
@@ -20448,7 +20476,7 @@
     </row>
     <row r="2" spans="1:27" ht="16">
       <c r="A2" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>137</v>
@@ -20464,7 +20492,7 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -20479,10 +20507,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>7</v>
@@ -20494,7 +20522,7 @@
         <v>8</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>10</v>
@@ -20524,7 +20552,7 @@
         <v>18</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -20605,7 +20633,7 @@
         <v>26</v>
       </c>
       <c r="AA3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16">
@@ -20711,7 +20739,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>250</v>
@@ -20778,7 +20806,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>250</v>
@@ -20843,7 +20871,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>250</v>
@@ -20907,7 +20935,7 @@
         <v>208</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>228</v>
@@ -20968,10 +20996,10 @@
         <v>208</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>117</v>
@@ -21029,10 +21057,10 @@
         <v>208</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>117</v>
@@ -21090,10 +21118,10 @@
         <v>208</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>117</v>
@@ -21153,10 +21181,10 @@
         <v>208</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>117</v>
@@ -21216,10 +21244,10 @@
         <v>208</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>117</v>
@@ -21279,10 +21307,10 @@
         <v>208</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>117</v>
@@ -21342,10 +21370,10 @@
         <v>208</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>117</v>
@@ -21403,10 +21431,10 @@
         <v>208</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>117</v>
@@ -21466,10 +21494,10 @@
         <v>208</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>117</v>
@@ -21527,10 +21555,10 @@
         <v>208</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>117</v>
@@ -21663,7 +21691,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21686,7 +21714,7 @@
     </row>
     <row r="2" spans="1:26" ht="16">
       <c r="A2" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>137</v>
@@ -21702,7 +21730,7 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -21717,7 +21745,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
@@ -21729,7 +21757,7 @@
         <v>8</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>10</v>
@@ -21759,7 +21787,7 @@
         <v>18</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -21839,7 +21867,7 @@
         <v>26</v>
       </c>
       <c r="Z3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16">
@@ -21939,7 +21967,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>250</v>
@@ -22003,7 +22031,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>250</v>
@@ -22065,7 +22093,7 @@
         <v>26</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>250</v>
@@ -22130,7 +22158,7 @@
         <v>244</v>
       </c>
       <c r="Z8" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="16">
@@ -22167,7 +22195,7 @@
         <v>244</v>
       </c>
       <c r="Z9" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="16">
@@ -22204,7 +22232,7 @@
         <v>244</v>
       </c>
       <c r="Z10" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="16">
@@ -22326,7 +22354,7 @@
     </row>
     <row r="2" spans="1:26" ht="16">
       <c r="A2" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>137</v>
@@ -22342,7 +22370,7 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -22357,7 +22385,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
@@ -22369,7 +22397,7 @@
         <v>8</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>10</v>
@@ -22399,7 +22427,7 @@
         <v>18</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -22479,7 +22507,7 @@
         <v>26</v>
       </c>
       <c r="Z3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16">
@@ -22577,7 +22605,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>250</v>
@@ -22643,7 +22671,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>250</v>
@@ -22705,7 +22733,7 @@
         <v>26</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>250</v>
@@ -22751,29 +22779,29 @@
         <v>24</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T8" s="2"/>
       <c r="Y8" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="Z8" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="16">
@@ -22791,29 +22819,29 @@
         <v>24</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T9" s="2"/>
       <c r="Y9" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="Z9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="16">
@@ -22831,29 +22859,29 @@
         <v>24</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T10" s="2"/>
       <c r="Y10" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="Z10" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="16">
@@ -22871,29 +22899,29 @@
         <v>24</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T11" s="2"/>
       <c r="Y11" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="Z11" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="16">
@@ -22911,29 +22939,29 @@
         <v>24</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T12" s="2"/>
       <c r="Y12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="Z12" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="16">
@@ -22951,29 +22979,29 @@
         <v>24</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="2"/>
       <c r="Y13" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="Z13" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="16">
@@ -23074,7 +23102,7 @@
     </row>
     <row r="2" spans="1:26" ht="16">
       <c r="A2" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>137</v>
@@ -23089,10 +23117,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -23107,7 +23135,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
@@ -23116,7 +23144,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>9</v>
@@ -23149,7 +23177,7 @@
         <v>18</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -23224,7 +23252,7 @@
         <v>26</v>
       </c>
       <c r="Z3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16">
@@ -23245,19 +23273,19 @@
         <v>24</v>
       </c>
       <c r="L4" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M4" t="s">
         <v>713</v>
       </c>
-      <c r="M4" t="s">
-        <v>712</v>
-      </c>
       <c r="N4" t="s">
+        <v>716</v>
+      </c>
+      <c r="O4" t="s">
         <v>715</v>
       </c>
-      <c r="O4" t="s">
-        <v>714</v>
-      </c>
       <c r="P4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z4" t="s">
         <v>26</v>
@@ -23283,19 +23311,19 @@
         <v>24</v>
       </c>
       <c r="L5" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M5" t="s">
         <v>713</v>
       </c>
-      <c r="M5" t="s">
-        <v>712</v>
-      </c>
       <c r="N5" t="s">
+        <v>716</v>
+      </c>
+      <c r="O5" t="s">
         <v>715</v>
       </c>
-      <c r="O5" t="s">
-        <v>714</v>
-      </c>
       <c r="P5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z5" t="s">
         <v>26</v>
@@ -23321,19 +23349,19 @@
         <v>24</v>
       </c>
       <c r="L6" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M6" t="s">
         <v>713</v>
       </c>
-      <c r="M6" t="s">
-        <v>712</v>
-      </c>
       <c r="N6" t="s">
+        <v>716</v>
+      </c>
+      <c r="O6" t="s">
         <v>715</v>
       </c>
-      <c r="O6" t="s">
-        <v>714</v>
-      </c>
       <c r="P6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z6" t="s">
         <v>26</v>
@@ -23362,19 +23390,19 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M7" t="s">
         <v>713</v>
       </c>
-      <c r="M7" t="s">
-        <v>712</v>
-      </c>
       <c r="N7" t="s">
+        <v>716</v>
+      </c>
+      <c r="O7" t="s">
         <v>715</v>
       </c>
-      <c r="O7" t="s">
-        <v>714</v>
-      </c>
       <c r="P7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -23401,19 +23429,19 @@
         <v>24</v>
       </c>
       <c r="L8" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M8" t="s">
         <v>713</v>
       </c>
-      <c r="M8" t="s">
-        <v>712</v>
-      </c>
       <c r="N8" t="s">
+        <v>716</v>
+      </c>
+      <c r="O8" t="s">
         <v>715</v>
       </c>
-      <c r="O8" t="s">
-        <v>714</v>
-      </c>
       <c r="P8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z8" t="s">
         <v>26</v>
@@ -23437,19 +23465,19 @@
         <v>24</v>
       </c>
       <c r="L9" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M9" t="s">
         <v>713</v>
       </c>
-      <c r="M9" t="s">
-        <v>712</v>
-      </c>
       <c r="N9" t="s">
+        <v>716</v>
+      </c>
+      <c r="O9" t="s">
         <v>715</v>
       </c>
-      <c r="O9" t="s">
-        <v>714</v>
-      </c>
       <c r="P9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z9" t="s">
         <v>26</v>
@@ -23473,19 +23501,19 @@
         <v>24</v>
       </c>
       <c r="L10" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M10" t="s">
         <v>713</v>
       </c>
-      <c r="M10" t="s">
-        <v>712</v>
-      </c>
       <c r="N10" t="s">
+        <v>716</v>
+      </c>
+      <c r="O10" t="s">
         <v>715</v>
       </c>
-      <c r="O10" t="s">
-        <v>714</v>
-      </c>
       <c r="P10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z10" t="s">
         <v>26</v>
@@ -23509,19 +23537,19 @@
         <v>24</v>
       </c>
       <c r="L11" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M11" t="s">
         <v>713</v>
       </c>
-      <c r="M11" t="s">
-        <v>712</v>
-      </c>
       <c r="N11" t="s">
+        <v>716</v>
+      </c>
+      <c r="O11" t="s">
         <v>715</v>
       </c>
-      <c r="O11" t="s">
-        <v>714</v>
-      </c>
       <c r="P11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z11" t="s">
         <v>26</v>
@@ -23545,19 +23573,19 @@
         <v>24</v>
       </c>
       <c r="L12" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M12" t="s">
         <v>713</v>
       </c>
-      <c r="M12" t="s">
-        <v>712</v>
-      </c>
       <c r="N12" t="s">
+        <v>716</v>
+      </c>
+      <c r="O12" t="s">
         <v>715</v>
       </c>
-      <c r="O12" t="s">
-        <v>714</v>
-      </c>
       <c r="P12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z12" t="s">
         <v>26</v>
@@ -23581,19 +23609,19 @@
         <v>24</v>
       </c>
       <c r="L13" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M13" t="s">
         <v>713</v>
       </c>
-      <c r="M13" t="s">
-        <v>712</v>
-      </c>
       <c r="N13" t="s">
+        <v>716</v>
+      </c>
+      <c r="O13" t="s">
         <v>715</v>
       </c>
-      <c r="O13" t="s">
-        <v>714</v>
-      </c>
       <c r="P13" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z13" t="s">
         <v>26</v>
@@ -23617,19 +23645,19 @@
         <v>24</v>
       </c>
       <c r="L14" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M14" t="s">
         <v>713</v>
       </c>
-      <c r="M14" t="s">
-        <v>712</v>
-      </c>
       <c r="N14" t="s">
+        <v>716</v>
+      </c>
+      <c r="O14" t="s">
         <v>715</v>
       </c>
-      <c r="O14" t="s">
-        <v>714</v>
-      </c>
       <c r="P14" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z14" t="s">
         <v>26</v>
@@ -23653,19 +23681,19 @@
         <v>24</v>
       </c>
       <c r="L15" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M15" t="s">
         <v>713</v>
       </c>
-      <c r="M15" t="s">
-        <v>712</v>
-      </c>
       <c r="N15" t="s">
+        <v>716</v>
+      </c>
+      <c r="O15" t="s">
         <v>715</v>
       </c>
-      <c r="O15" t="s">
-        <v>714</v>
-      </c>
       <c r="P15" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z15" t="s">
         <v>26</v>
@@ -23689,19 +23717,19 @@
         <v>24</v>
       </c>
       <c r="L16" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M16" t="s">
         <v>713</v>
       </c>
-      <c r="M16" t="s">
-        <v>712</v>
-      </c>
       <c r="N16" t="s">
+        <v>716</v>
+      </c>
+      <c r="O16" t="s">
         <v>715</v>
       </c>
-      <c r="O16" t="s">
-        <v>714</v>
-      </c>
       <c r="P16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z16" t="s">
         <v>26</v>
@@ -23725,19 +23753,19 @@
         <v>24</v>
       </c>
       <c r="L17" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M17" t="s">
         <v>713</v>
       </c>
-      <c r="M17" t="s">
-        <v>712</v>
-      </c>
       <c r="N17" t="s">
+        <v>716</v>
+      </c>
+      <c r="O17" t="s">
         <v>715</v>
       </c>
-      <c r="O17" t="s">
-        <v>714</v>
-      </c>
       <c r="P17" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z17" t="s">
         <v>26</v>
@@ -23761,19 +23789,19 @@
         <v>24</v>
       </c>
       <c r="L18" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M18" t="s">
         <v>713</v>
       </c>
-      <c r="M18" t="s">
-        <v>712</v>
-      </c>
       <c r="N18" t="s">
+        <v>716</v>
+      </c>
+      <c r="O18" t="s">
         <v>715</v>
       </c>
-      <c r="O18" t="s">
-        <v>714</v>
-      </c>
       <c r="P18" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z18" t="s">
         <v>26</v>
@@ -23797,19 +23825,19 @@
         <v>24</v>
       </c>
       <c r="L19" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M19" t="s">
         <v>713</v>
       </c>
-      <c r="M19" t="s">
-        <v>712</v>
-      </c>
       <c r="N19" t="s">
+        <v>716</v>
+      </c>
+      <c r="O19" t="s">
         <v>715</v>
       </c>
-      <c r="O19" t="s">
-        <v>714</v>
-      </c>
       <c r="P19" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z19" t="s">
         <v>26</v>
@@ -23833,19 +23861,19 @@
         <v>24</v>
       </c>
       <c r="L20" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M20" t="s">
         <v>713</v>
       </c>
-      <c r="M20" t="s">
-        <v>712</v>
-      </c>
       <c r="N20" t="s">
+        <v>716</v>
+      </c>
+      <c r="O20" t="s">
         <v>715</v>
       </c>
-      <c r="O20" t="s">
-        <v>714</v>
-      </c>
       <c r="P20" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z20" t="s">
         <v>26</v>
@@ -23869,19 +23897,19 @@
         <v>24</v>
       </c>
       <c r="L21" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M21" t="s">
         <v>713</v>
       </c>
-      <c r="M21" t="s">
-        <v>712</v>
-      </c>
       <c r="N21" t="s">
+        <v>716</v>
+      </c>
+      <c r="O21" t="s">
         <v>715</v>
       </c>
-      <c r="O21" t="s">
-        <v>714</v>
-      </c>
       <c r="P21" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z21" t="s">
         <v>26</v>
@@ -23905,19 +23933,19 @@
         <v>24</v>
       </c>
       <c r="L22" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M22" t="s">
         <v>713</v>
       </c>
-      <c r="M22" t="s">
-        <v>712</v>
-      </c>
       <c r="N22" t="s">
+        <v>716</v>
+      </c>
+      <c r="O22" t="s">
         <v>715</v>
       </c>
-      <c r="O22" t="s">
-        <v>714</v>
-      </c>
       <c r="P22" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z22" t="s">
         <v>26</v>
@@ -23941,19 +23969,19 @@
         <v>24</v>
       </c>
       <c r="L23" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M23" t="s">
         <v>713</v>
       </c>
-      <c r="M23" t="s">
-        <v>712</v>
-      </c>
       <c r="N23" t="s">
+        <v>716</v>
+      </c>
+      <c r="O23" t="s">
         <v>715</v>
       </c>
-      <c r="O23" t="s">
-        <v>714</v>
-      </c>
       <c r="P23" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z23" t="s">
         <v>26</v>
@@ -23977,19 +24005,19 @@
         <v>24</v>
       </c>
       <c r="L24" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M24" t="s">
         <v>713</v>
       </c>
-      <c r="M24" t="s">
-        <v>712</v>
-      </c>
       <c r="N24" t="s">
+        <v>716</v>
+      </c>
+      <c r="O24" t="s">
         <v>715</v>
       </c>
-      <c r="O24" t="s">
-        <v>714</v>
-      </c>
       <c r="P24" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z24" t="s">
         <v>26</v>
@@ -24013,19 +24041,19 @@
         <v>24</v>
       </c>
       <c r="L25" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M25" t="s">
         <v>713</v>
       </c>
-      <c r="M25" t="s">
-        <v>712</v>
-      </c>
       <c r="N25" t="s">
+        <v>716</v>
+      </c>
+      <c r="O25" t="s">
         <v>715</v>
       </c>
-      <c r="O25" t="s">
-        <v>714</v>
-      </c>
       <c r="P25" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z25" t="s">
         <v>26</v>
@@ -24049,19 +24077,19 @@
         <v>24</v>
       </c>
       <c r="L26" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M26" t="s">
         <v>713</v>
       </c>
-      <c r="M26" t="s">
-        <v>712</v>
-      </c>
       <c r="N26" t="s">
+        <v>716</v>
+      </c>
+      <c r="O26" t="s">
         <v>715</v>
       </c>
-      <c r="O26" t="s">
-        <v>714</v>
-      </c>
       <c r="P26" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z26" t="s">
         <v>26</v>
@@ -24085,19 +24113,19 @@
         <v>24</v>
       </c>
       <c r="L27" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M27" t="s">
         <v>713</v>
       </c>
-      <c r="M27" t="s">
-        <v>712</v>
-      </c>
       <c r="N27" t="s">
+        <v>716</v>
+      </c>
+      <c r="O27" t="s">
         <v>715</v>
       </c>
-      <c r="O27" t="s">
-        <v>714</v>
-      </c>
       <c r="P27" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z27" t="s">
         <v>26</v>
@@ -24121,19 +24149,19 @@
         <v>24</v>
       </c>
       <c r="L28" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M28" t="s">
         <v>713</v>
       </c>
-      <c r="M28" t="s">
-        <v>712</v>
-      </c>
       <c r="N28" t="s">
+        <v>716</v>
+      </c>
+      <c r="O28" t="s">
         <v>715</v>
       </c>
-      <c r="O28" t="s">
-        <v>714</v>
-      </c>
       <c r="P28" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z28" t="s">
         <v>26</v>
@@ -24157,19 +24185,19 @@
         <v>24</v>
       </c>
       <c r="L29" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M29" t="s">
         <v>713</v>
       </c>
-      <c r="M29" t="s">
-        <v>712</v>
-      </c>
       <c r="N29" t="s">
+        <v>716</v>
+      </c>
+      <c r="O29" t="s">
         <v>715</v>
       </c>
-      <c r="O29" t="s">
-        <v>714</v>
-      </c>
       <c r="P29" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z29" t="s">
         <v>26</v>
@@ -24193,19 +24221,19 @@
         <v>24</v>
       </c>
       <c r="L30" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M30" t="s">
         <v>713</v>
       </c>
-      <c r="M30" t="s">
-        <v>712</v>
-      </c>
       <c r="N30" t="s">
+        <v>716</v>
+      </c>
+      <c r="O30" t="s">
         <v>715</v>
       </c>
-      <c r="O30" t="s">
-        <v>714</v>
-      </c>
       <c r="P30" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z30" t="s">
         <v>26</v>
@@ -24229,19 +24257,19 @@
         <v>24</v>
       </c>
       <c r="L31" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M31" t="s">
         <v>713</v>
       </c>
-      <c r="M31" t="s">
-        <v>712</v>
-      </c>
       <c r="N31" t="s">
+        <v>716</v>
+      </c>
+      <c r="O31" t="s">
         <v>715</v>
       </c>
-      <c r="O31" t="s">
-        <v>714</v>
-      </c>
       <c r="P31" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z31" t="s">
         <v>26</v>
@@ -24265,19 +24293,19 @@
         <v>24</v>
       </c>
       <c r="L32" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M32" t="s">
         <v>713</v>
       </c>
-      <c r="M32" t="s">
-        <v>712</v>
-      </c>
       <c r="N32" t="s">
+        <v>716</v>
+      </c>
+      <c r="O32" t="s">
         <v>715</v>
       </c>
-      <c r="O32" t="s">
-        <v>714</v>
-      </c>
       <c r="P32" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z32" t="s">
         <v>26</v>
@@ -24301,19 +24329,19 @@
         <v>24</v>
       </c>
       <c r="L33" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M33" t="s">
         <v>713</v>
       </c>
-      <c r="M33" t="s">
-        <v>712</v>
-      </c>
       <c r="N33" t="s">
+        <v>716</v>
+      </c>
+      <c r="O33" t="s">
         <v>715</v>
       </c>
-      <c r="O33" t="s">
-        <v>714</v>
-      </c>
       <c r="P33" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z33" t="s">
         <v>26</v>
@@ -24337,19 +24365,19 @@
         <v>24</v>
       </c>
       <c r="L34" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M34" t="s">
         <v>713</v>
       </c>
-      <c r="M34" t="s">
-        <v>712</v>
-      </c>
       <c r="N34" t="s">
+        <v>716</v>
+      </c>
+      <c r="O34" t="s">
         <v>715</v>
       </c>
-      <c r="O34" t="s">
-        <v>714</v>
-      </c>
       <c r="P34" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z34" t="s">
         <v>26</v>
@@ -24373,19 +24401,19 @@
         <v>24</v>
       </c>
       <c r="L35" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M35" t="s">
         <v>713</v>
       </c>
-      <c r="M35" t="s">
-        <v>712</v>
-      </c>
       <c r="N35" t="s">
+        <v>716</v>
+      </c>
+      <c r="O35" t="s">
         <v>715</v>
       </c>
-      <c r="O35" t="s">
-        <v>714</v>
-      </c>
       <c r="P35" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z35" t="s">
         <v>26</v>
@@ -24409,19 +24437,19 @@
         <v>24</v>
       </c>
       <c r="L36" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M36" t="s">
         <v>713</v>
       </c>
-      <c r="M36" t="s">
-        <v>712</v>
-      </c>
       <c r="N36" t="s">
+        <v>716</v>
+      </c>
+      <c r="O36" t="s">
         <v>715</v>
       </c>
-      <c r="O36" t="s">
-        <v>714</v>
-      </c>
       <c r="P36" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z36" t="s">
         <v>26</v>
@@ -24445,19 +24473,19 @@
         <v>24</v>
       </c>
       <c r="L37" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M37" t="s">
         <v>713</v>
       </c>
-      <c r="M37" t="s">
-        <v>712</v>
-      </c>
       <c r="N37" t="s">
+        <v>716</v>
+      </c>
+      <c r="O37" t="s">
         <v>715</v>
       </c>
-      <c r="O37" t="s">
-        <v>714</v>
-      </c>
       <c r="P37" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z37" t="s">
         <v>26</v>
@@ -24481,19 +24509,19 @@
         <v>24</v>
       </c>
       <c r="L38" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M38" t="s">
         <v>713</v>
       </c>
-      <c r="M38" t="s">
-        <v>712</v>
-      </c>
       <c r="N38" t="s">
+        <v>716</v>
+      </c>
+      <c r="O38" t="s">
         <v>715</v>
       </c>
-      <c r="O38" t="s">
-        <v>714</v>
-      </c>
       <c r="P38" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z38" t="s">
         <v>26</v>
@@ -24517,19 +24545,19 @@
         <v>24</v>
       </c>
       <c r="L39" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M39" t="s">
         <v>713</v>
       </c>
-      <c r="M39" t="s">
-        <v>712</v>
-      </c>
       <c r="N39" t="s">
+        <v>716</v>
+      </c>
+      <c r="O39" t="s">
         <v>715</v>
       </c>
-      <c r="O39" t="s">
-        <v>714</v>
-      </c>
       <c r="P39" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z39" t="s">
         <v>26</v>
@@ -24553,19 +24581,19 @@
         <v>24</v>
       </c>
       <c r="L40" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M40" t="s">
         <v>713</v>
       </c>
-      <c r="M40" t="s">
-        <v>712</v>
-      </c>
       <c r="N40" t="s">
+        <v>716</v>
+      </c>
+      <c r="O40" t="s">
         <v>715</v>
       </c>
-      <c r="O40" t="s">
-        <v>714</v>
-      </c>
       <c r="P40" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z40" t="s">
         <v>26</v>
@@ -24589,19 +24617,19 @@
         <v>24</v>
       </c>
       <c r="L41" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="M41" t="s">
         <v>713</v>
       </c>
-      <c r="M41" t="s">
-        <v>712</v>
-      </c>
       <c r="N41" t="s">
+        <v>716</v>
+      </c>
+      <c r="O41" t="s">
         <v>715</v>
       </c>
-      <c r="O41" t="s">
-        <v>714</v>
-      </c>
       <c r="P41" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z41" t="s">
         <v>26</v>
@@ -24673,7 +24701,7 @@
     </row>
     <row r="2" spans="1:26" ht="16">
       <c r="A2" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>137</v>
@@ -24688,10 +24716,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -24706,7 +24734,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
@@ -24715,7 +24743,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>9</v>
@@ -24748,7 +24776,7 @@
         <v>18</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -24823,7 +24851,7 @@
         <v>26</v>
       </c>
       <c r="Z3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -24844,19 +24872,19 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
+        <v>714</v>
+      </c>
+      <c r="M4" t="s">
         <v>713</v>
       </c>
-      <c r="M4" t="s">
-        <v>712</v>
-      </c>
       <c r="N4" t="s">
+        <v>716</v>
+      </c>
+      <c r="O4" t="s">
         <v>715</v>
       </c>
-      <c r="O4" t="s">
-        <v>714</v>
-      </c>
       <c r="P4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z4" t="s">
         <v>26</v>
@@ -24882,19 +24910,19 @@
         <v>24</v>
       </c>
       <c r="L5" t="s">
+        <v>714</v>
+      </c>
+      <c r="M5" t="s">
         <v>713</v>
       </c>
-      <c r="M5" t="s">
-        <v>712</v>
-      </c>
       <c r="N5" t="s">
+        <v>716</v>
+      </c>
+      <c r="O5" t="s">
         <v>715</v>
       </c>
-      <c r="O5" t="s">
-        <v>714</v>
-      </c>
       <c r="P5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z5" t="s">
         <v>26</v>
@@ -24920,19 +24948,19 @@
         <v>24</v>
       </c>
       <c r="L6" t="s">
+        <v>714</v>
+      </c>
+      <c r="M6" t="s">
         <v>713</v>
       </c>
-      <c r="M6" t="s">
-        <v>712</v>
-      </c>
       <c r="N6" t="s">
+        <v>716</v>
+      </c>
+      <c r="O6" t="s">
         <v>715</v>
       </c>
-      <c r="O6" t="s">
-        <v>714</v>
-      </c>
       <c r="P6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z6" t="s">
         <v>26</v>
@@ -24956,19 +24984,19 @@
         <v>24</v>
       </c>
       <c r="L7" t="s">
+        <v>714</v>
+      </c>
+      <c r="M7" t="s">
         <v>713</v>
       </c>
-      <c r="M7" t="s">
-        <v>712</v>
-      </c>
       <c r="N7" t="s">
+        <v>716</v>
+      </c>
+      <c r="O7" t="s">
         <v>715</v>
       </c>
-      <c r="O7" t="s">
-        <v>714</v>
-      </c>
       <c r="P7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z7" t="s">
         <v>26</v>
@@ -24992,19 +25020,19 @@
         <v>24</v>
       </c>
       <c r="L8" t="s">
+        <v>714</v>
+      </c>
+      <c r="M8" t="s">
         <v>713</v>
       </c>
-      <c r="M8" t="s">
-        <v>712</v>
-      </c>
       <c r="N8" t="s">
+        <v>716</v>
+      </c>
+      <c r="O8" t="s">
         <v>715</v>
       </c>
-      <c r="O8" t="s">
-        <v>714</v>
-      </c>
       <c r="P8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z8" t="s">
         <v>26</v>
@@ -25028,19 +25056,19 @@
         <v>24</v>
       </c>
       <c r="L9" t="s">
+        <v>714</v>
+      </c>
+      <c r="M9" t="s">
         <v>713</v>
       </c>
-      <c r="M9" t="s">
-        <v>712</v>
-      </c>
       <c r="N9" t="s">
+        <v>716</v>
+      </c>
+      <c r="O9" t="s">
         <v>715</v>
       </c>
-      <c r="O9" t="s">
-        <v>714</v>
-      </c>
       <c r="P9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z9" t="s">
         <v>26</v>
@@ -25064,19 +25092,19 @@
         <v>24</v>
       </c>
       <c r="L10" t="s">
+        <v>714</v>
+      </c>
+      <c r="M10" t="s">
         <v>713</v>
       </c>
-      <c r="M10" t="s">
-        <v>712</v>
-      </c>
       <c r="N10" t="s">
+        <v>716</v>
+      </c>
+      <c r="O10" t="s">
         <v>715</v>
       </c>
-      <c r="O10" t="s">
-        <v>714</v>
-      </c>
       <c r="P10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z10" t="s">
         <v>26</v>
@@ -25100,19 +25128,19 @@
         <v>24</v>
       </c>
       <c r="L11" t="s">
+        <v>714</v>
+      </c>
+      <c r="M11" t="s">
         <v>713</v>
       </c>
-      <c r="M11" t="s">
-        <v>712</v>
-      </c>
       <c r="N11" t="s">
+        <v>716</v>
+      </c>
+      <c r="O11" t="s">
         <v>715</v>
       </c>
-      <c r="O11" t="s">
-        <v>714</v>
-      </c>
       <c r="P11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z11" t="s">
         <v>26</v>
@@ -25136,19 +25164,19 @@
         <v>24</v>
       </c>
       <c r="L12" t="s">
+        <v>714</v>
+      </c>
+      <c r="M12" t="s">
         <v>713</v>
       </c>
-      <c r="M12" t="s">
-        <v>712</v>
-      </c>
       <c r="N12" t="s">
+        <v>716</v>
+      </c>
+      <c r="O12" t="s">
         <v>715</v>
       </c>
-      <c r="O12" t="s">
-        <v>714</v>
-      </c>
       <c r="P12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z12" t="s">
         <v>26</v>
@@ -25172,19 +25200,19 @@
         <v>24</v>
       </c>
       <c r="L13" t="s">
+        <v>714</v>
+      </c>
+      <c r="M13" t="s">
         <v>713</v>
       </c>
-      <c r="M13" t="s">
-        <v>712</v>
-      </c>
       <c r="N13" t="s">
+        <v>716</v>
+      </c>
+      <c r="O13" t="s">
         <v>715</v>
       </c>
-      <c r="O13" t="s">
-        <v>714</v>
-      </c>
       <c r="P13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z13" t="s">
         <v>26</v>
@@ -25208,19 +25236,19 @@
         <v>24</v>
       </c>
       <c r="L14" t="s">
+        <v>714</v>
+      </c>
+      <c r="M14" t="s">
         <v>713</v>
       </c>
-      <c r="M14" t="s">
-        <v>712</v>
-      </c>
       <c r="N14" t="s">
+        <v>716</v>
+      </c>
+      <c r="O14" t="s">
         <v>715</v>
       </c>
-      <c r="O14" t="s">
-        <v>714</v>
-      </c>
       <c r="P14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z14" t="s">
         <v>26</v>
@@ -25244,19 +25272,19 @@
         <v>24</v>
       </c>
       <c r="L15" t="s">
+        <v>714</v>
+      </c>
+      <c r="M15" t="s">
         <v>713</v>
       </c>
-      <c r="M15" t="s">
-        <v>712</v>
-      </c>
       <c r="N15" t="s">
+        <v>716</v>
+      </c>
+      <c r="O15" t="s">
         <v>715</v>
       </c>
-      <c r="O15" t="s">
-        <v>714</v>
-      </c>
       <c r="P15" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z15" t="s">
         <v>26</v>
@@ -25280,19 +25308,19 @@
         <v>24</v>
       </c>
       <c r="L16" t="s">
+        <v>714</v>
+      </c>
+      <c r="M16" t="s">
         <v>713</v>
       </c>
-      <c r="M16" t="s">
-        <v>712</v>
-      </c>
       <c r="N16" t="s">
+        <v>716</v>
+      </c>
+      <c r="O16" t="s">
         <v>715</v>
       </c>
-      <c r="O16" t="s">
-        <v>714</v>
-      </c>
       <c r="P16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z16" t="s">
         <v>26</v>
@@ -25316,19 +25344,19 @@
         <v>24</v>
       </c>
       <c r="L17" t="s">
+        <v>714</v>
+      </c>
+      <c r="M17" t="s">
         <v>713</v>
       </c>
-      <c r="M17" t="s">
-        <v>712</v>
-      </c>
       <c r="N17" t="s">
+        <v>716</v>
+      </c>
+      <c r="O17" t="s">
         <v>715</v>
       </c>
-      <c r="O17" t="s">
-        <v>714</v>
-      </c>
       <c r="P17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z17" t="s">
         <v>26</v>
@@ -25352,19 +25380,19 @@
         <v>24</v>
       </c>
       <c r="L18" t="s">
+        <v>714</v>
+      </c>
+      <c r="M18" t="s">
         <v>713</v>
       </c>
-      <c r="M18" t="s">
-        <v>712</v>
-      </c>
       <c r="N18" t="s">
+        <v>716</v>
+      </c>
+      <c r="O18" t="s">
         <v>715</v>
       </c>
-      <c r="O18" t="s">
-        <v>714</v>
-      </c>
       <c r="P18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z18" t="s">
         <v>26</v>
@@ -25388,19 +25416,19 @@
         <v>24</v>
       </c>
       <c r="L19" t="s">
+        <v>714</v>
+      </c>
+      <c r="M19" t="s">
         <v>713</v>
       </c>
-      <c r="M19" t="s">
-        <v>712</v>
-      </c>
       <c r="N19" t="s">
+        <v>716</v>
+      </c>
+      <c r="O19" t="s">
         <v>715</v>
       </c>
-      <c r="O19" t="s">
-        <v>714</v>
-      </c>
       <c r="P19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z19" t="s">
         <v>26</v>
@@ -25424,19 +25452,19 @@
         <v>24</v>
       </c>
       <c r="L20" t="s">
+        <v>714</v>
+      </c>
+      <c r="M20" t="s">
         <v>713</v>
       </c>
-      <c r="M20" t="s">
-        <v>712</v>
-      </c>
       <c r="N20" t="s">
+        <v>716</v>
+      </c>
+      <c r="O20" t="s">
         <v>715</v>
       </c>
-      <c r="O20" t="s">
-        <v>714</v>
-      </c>
       <c r="P20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z20" t="s">
         <v>26</v>
@@ -25460,19 +25488,19 @@
         <v>24</v>
       </c>
       <c r="L21" t="s">
+        <v>714</v>
+      </c>
+      <c r="M21" t="s">
         <v>713</v>
       </c>
-      <c r="M21" t="s">
-        <v>712</v>
-      </c>
       <c r="N21" t="s">
+        <v>716</v>
+      </c>
+      <c r="O21" t="s">
         <v>715</v>
       </c>
-      <c r="O21" t="s">
-        <v>714</v>
-      </c>
       <c r="P21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z21" t="s">
         <v>26</v>
@@ -25496,19 +25524,19 @@
         <v>24</v>
       </c>
       <c r="L22" t="s">
+        <v>714</v>
+      </c>
+      <c r="M22" t="s">
         <v>713</v>
       </c>
-      <c r="M22" t="s">
-        <v>712</v>
-      </c>
       <c r="N22" t="s">
+        <v>716</v>
+      </c>
+      <c r="O22" t="s">
         <v>715</v>
       </c>
-      <c r="O22" t="s">
-        <v>714</v>
-      </c>
       <c r="P22" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z22" t="s">
         <v>26</v>
@@ -25532,19 +25560,19 @@
         <v>24</v>
       </c>
       <c r="L23" t="s">
+        <v>714</v>
+      </c>
+      <c r="M23" t="s">
         <v>713</v>
       </c>
-      <c r="M23" t="s">
-        <v>712</v>
-      </c>
       <c r="N23" t="s">
+        <v>716</v>
+      </c>
+      <c r="O23" t="s">
         <v>715</v>
       </c>
-      <c r="O23" t="s">
-        <v>714</v>
-      </c>
       <c r="P23" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z23" t="s">
         <v>26</v>
@@ -25568,19 +25596,19 @@
         <v>24</v>
       </c>
       <c r="L24" t="s">
+        <v>714</v>
+      </c>
+      <c r="M24" t="s">
         <v>713</v>
       </c>
-      <c r="M24" t="s">
-        <v>712</v>
-      </c>
       <c r="N24" t="s">
+        <v>716</v>
+      </c>
+      <c r="O24" t="s">
         <v>715</v>
       </c>
-      <c r="O24" t="s">
-        <v>714</v>
-      </c>
       <c r="P24" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z24" t="s">
         <v>26</v>
@@ -25604,19 +25632,19 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
+        <v>714</v>
+      </c>
+      <c r="M25" t="s">
         <v>713</v>
       </c>
-      <c r="M25" t="s">
-        <v>712</v>
-      </c>
       <c r="N25" t="s">
+        <v>716</v>
+      </c>
+      <c r="O25" t="s">
         <v>715</v>
       </c>
-      <c r="O25" t="s">
-        <v>714</v>
-      </c>
       <c r="P25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z25" t="s">
         <v>26</v>
@@ -25640,19 +25668,19 @@
         <v>24</v>
       </c>
       <c r="L26" t="s">
+        <v>714</v>
+      </c>
+      <c r="M26" t="s">
         <v>713</v>
       </c>
-      <c r="M26" t="s">
-        <v>712</v>
-      </c>
       <c r="N26" t="s">
+        <v>716</v>
+      </c>
+      <c r="O26" t="s">
         <v>715</v>
       </c>
-      <c r="O26" t="s">
-        <v>714</v>
-      </c>
       <c r="P26" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z26" t="s">
         <v>26</v>
@@ -25676,19 +25704,19 @@
         <v>24</v>
       </c>
       <c r="L27" t="s">
+        <v>714</v>
+      </c>
+      <c r="M27" t="s">
         <v>713</v>
       </c>
-      <c r="M27" t="s">
-        <v>712</v>
-      </c>
       <c r="N27" t="s">
+        <v>716</v>
+      </c>
+      <c r="O27" t="s">
         <v>715</v>
       </c>
-      <c r="O27" t="s">
-        <v>714</v>
-      </c>
       <c r="P27" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z27" t="s">
         <v>26</v>
@@ -25712,19 +25740,19 @@
         <v>24</v>
       </c>
       <c r="L28" t="s">
+        <v>714</v>
+      </c>
+      <c r="M28" t="s">
         <v>713</v>
       </c>
-      <c r="M28" t="s">
-        <v>712</v>
-      </c>
       <c r="N28" t="s">
+        <v>716</v>
+      </c>
+      <c r="O28" t="s">
         <v>715</v>
       </c>
-      <c r="O28" t="s">
-        <v>714</v>
-      </c>
       <c r="P28" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z28" t="s">
         <v>26</v>
@@ -25748,19 +25776,19 @@
         <v>24</v>
       </c>
       <c r="L29" t="s">
+        <v>714</v>
+      </c>
+      <c r="M29" t="s">
         <v>713</v>
       </c>
-      <c r="M29" t="s">
-        <v>712</v>
-      </c>
       <c r="N29" t="s">
+        <v>716</v>
+      </c>
+      <c r="O29" t="s">
         <v>715</v>
       </c>
-      <c r="O29" t="s">
-        <v>714</v>
-      </c>
       <c r="P29" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z29" t="s">
         <v>26</v>
@@ -25784,19 +25812,19 @@
         <v>24</v>
       </c>
       <c r="L30" t="s">
+        <v>714</v>
+      </c>
+      <c r="M30" t="s">
         <v>713</v>
       </c>
-      <c r="M30" t="s">
-        <v>712</v>
-      </c>
       <c r="N30" t="s">
+        <v>716</v>
+      </c>
+      <c r="O30" t="s">
         <v>715</v>
       </c>
-      <c r="O30" t="s">
-        <v>714</v>
-      </c>
       <c r="P30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z30" t="s">
         <v>26</v>
@@ -25820,19 +25848,19 @@
         <v>24</v>
       </c>
       <c r="L31" t="s">
+        <v>714</v>
+      </c>
+      <c r="M31" t="s">
         <v>713</v>
       </c>
-      <c r="M31" t="s">
-        <v>712</v>
-      </c>
       <c r="N31" t="s">
+        <v>716</v>
+      </c>
+      <c r="O31" t="s">
         <v>715</v>
       </c>
-      <c r="O31" t="s">
-        <v>714</v>
-      </c>
       <c r="P31" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z31" t="s">
         <v>26</v>
@@ -25856,19 +25884,19 @@
         <v>24</v>
       </c>
       <c r="L32" t="s">
+        <v>714</v>
+      </c>
+      <c r="M32" t="s">
         <v>713</v>
       </c>
-      <c r="M32" t="s">
-        <v>712</v>
-      </c>
       <c r="N32" t="s">
+        <v>716</v>
+      </c>
+      <c r="O32" t="s">
         <v>715</v>
       </c>
-      <c r="O32" t="s">
-        <v>714</v>
-      </c>
       <c r="P32" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z32" t="s">
         <v>26</v>
@@ -25892,19 +25920,19 @@
         <v>24</v>
       </c>
       <c r="L33" t="s">
+        <v>714</v>
+      </c>
+      <c r="M33" t="s">
         <v>713</v>
       </c>
-      <c r="M33" t="s">
-        <v>712</v>
-      </c>
       <c r="N33" t="s">
+        <v>716</v>
+      </c>
+      <c r="O33" t="s">
         <v>715</v>
       </c>
-      <c r="O33" t="s">
-        <v>714</v>
-      </c>
       <c r="P33" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z33" t="s">
         <v>26</v>
@@ -25928,19 +25956,19 @@
         <v>24</v>
       </c>
       <c r="L34" t="s">
+        <v>714</v>
+      </c>
+      <c r="M34" t="s">
         <v>713</v>
       </c>
-      <c r="M34" t="s">
-        <v>712</v>
-      </c>
       <c r="N34" t="s">
+        <v>716</v>
+      </c>
+      <c r="O34" t="s">
         <v>715</v>
       </c>
-      <c r="O34" t="s">
-        <v>714</v>
-      </c>
       <c r="P34" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z34" t="s">
         <v>26</v>
@@ -25964,19 +25992,19 @@
         <v>24</v>
       </c>
       <c r="L35" t="s">
+        <v>714</v>
+      </c>
+      <c r="M35" t="s">
         <v>713</v>
       </c>
-      <c r="M35" t="s">
-        <v>712</v>
-      </c>
       <c r="N35" t="s">
+        <v>716</v>
+      </c>
+      <c r="O35" t="s">
         <v>715</v>
       </c>
-      <c r="O35" t="s">
-        <v>714</v>
-      </c>
       <c r="P35" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z35" t="s">
         <v>26</v>
@@ -26000,19 +26028,19 @@
         <v>24</v>
       </c>
       <c r="L36" t="s">
+        <v>714</v>
+      </c>
+      <c r="M36" t="s">
         <v>713</v>
       </c>
-      <c r="M36" t="s">
-        <v>712</v>
-      </c>
       <c r="N36" t="s">
+        <v>716</v>
+      </c>
+      <c r="O36" t="s">
         <v>715</v>
       </c>
-      <c r="O36" t="s">
-        <v>714</v>
-      </c>
       <c r="P36" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z36" t="s">
         <v>26</v>
@@ -26036,19 +26064,19 @@
         <v>24</v>
       </c>
       <c r="L37" t="s">
+        <v>714</v>
+      </c>
+      <c r="M37" t="s">
         <v>713</v>
       </c>
-      <c r="M37" t="s">
-        <v>712</v>
-      </c>
       <c r="N37" t="s">
+        <v>716</v>
+      </c>
+      <c r="O37" t="s">
         <v>715</v>
       </c>
-      <c r="O37" t="s">
-        <v>714</v>
-      </c>
       <c r="P37" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z37" t="s">
         <v>26</v>
@@ -26072,19 +26100,19 @@
         <v>24</v>
       </c>
       <c r="L38" t="s">
+        <v>714</v>
+      </c>
+      <c r="M38" t="s">
         <v>713</v>
       </c>
-      <c r="M38" t="s">
-        <v>712</v>
-      </c>
       <c r="N38" t="s">
+        <v>716</v>
+      </c>
+      <c r="O38" t="s">
         <v>715</v>
       </c>
-      <c r="O38" t="s">
-        <v>714</v>
-      </c>
       <c r="P38" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z38" t="s">
         <v>26</v>
@@ -26108,19 +26136,19 @@
         <v>24</v>
       </c>
       <c r="L39" t="s">
+        <v>714</v>
+      </c>
+      <c r="M39" t="s">
         <v>713</v>
       </c>
-      <c r="M39" t="s">
-        <v>712</v>
-      </c>
       <c r="N39" t="s">
+        <v>716</v>
+      </c>
+      <c r="O39" t="s">
         <v>715</v>
       </c>
-      <c r="O39" t="s">
-        <v>714</v>
-      </c>
       <c r="P39" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z39" t="s">
         <v>26</v>
